--- a/ASHRAE901_ApartmentHighRise_STD2019_AlbuquerqueTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_AlbuquerqueTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2036.49</t>
+          <t>2363.08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1289.91</t>
+          <t>2374.52</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>448.32</t>
+          <t>720.04</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1040.58</t>
+          <t>1978.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>836.96</t>
+          <t>1571.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>831.40</t>
+          <t>1564.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1441.78</t>
+          <t>1551.15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1469.09</t>
+          <t>1574.85</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2879.01</t>
+          <t>3202.91</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1744.48</t>
+          <t>3082.41</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2184.81</t>
+          <t>2423.86</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1613.84</t>
+          <t>2318.95</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1256.56</t>
+          <t>1836.74</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1250.32</t>
+          <t>1828.66</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1672.49</t>
+          <t>1792.15</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1680.22</t>
+          <t>1788.04</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2883.25</t>
+          <t>3148.66</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1747.80</t>
+          <t>3081.76</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2184.52</t>
+          <t>2404.49</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1624.64</t>
+          <t>2324.10</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1260.49</t>
+          <t>1836.79</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1254.45</t>
+          <t>1827.88</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1693.11</t>
+          <t>1786.69</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1683.31</t>
+          <t>1778.70</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2947.60</t>
+          <t>3154.69</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1743.55</t>
+          <t>3087.55</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2299.89</t>
+          <t>2353.28</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1627.48</t>
+          <t>2326.70</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1263.81</t>
+          <t>1841.60</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1286.59</t>
+          <t>1832.62</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1702.09</t>
+          <t>1775.17</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1692.56</t>
+          <t>1768.09</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2954.83</t>
+          <t>3016.70</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1734.16</t>
+          <t>3092.07</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2305.75</t>
+          <t>2353.29</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1625.99</t>
+          <t>2329.64</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1263.91</t>
+          <t>1846.02</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1288.46</t>
+          <t>1836.24</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1708.08</t>
+          <t>1745.27</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1698.55</t>
+          <t>1739.61</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2960.54</t>
+          <t>3018.10</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>1724.44</t>
+          <t>3095.84</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2253.51</t>
+          <t>2355.05</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1623.85</t>
+          <t>2364.81</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1263.51</t>
+          <t>1849.51</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1257.87</t>
+          <t>1838.58</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1713.15</t>
+          <t>1767.81</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1703.63</t>
+          <t>1741.13</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2966.24</t>
+          <t>3044.93</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>1716.77</t>
+          <t>3087.88</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2258.72</t>
+          <t>2360.34</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1622.99</t>
+          <t>2370.02</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1264.13</t>
+          <t>1855.62</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1258.52</t>
+          <t>1844.40</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1718.59</t>
+          <t>1766.22</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1709.06</t>
+          <t>1761.46</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2977.16</t>
+          <t>3051.11</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>1716.40</t>
+          <t>3099.36</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2267.85</t>
+          <t>2367.97</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1627.77</t>
+          <t>2379.02</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1270.83</t>
+          <t>1865.43</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1268.22</t>
+          <t>1857.93</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1728.33</t>
+          <t>1775.51</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1718.79</t>
+          <t>1765.94</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3062.16</t>
+          <t>3132.47</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>1793.00</t>
+          <t>3209.82</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2398.22</t>
+          <t>2498.26</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1706.21</t>
+          <t>2480.33</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1339.25</t>
+          <t>1953.73</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1332.88</t>
+          <t>1948.12</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1827.56</t>
+          <t>1856.49</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1817.94</t>
+          <t>1848.68</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3850.54</t>
+          <t>3954.73</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>2465.23</t>
+          <t>3810.37</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3125.24</t>
+          <t>3271.31</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>1522.22</t>
+          <t>2898.32</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1634.04</t>
+          <t>2357.89</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1607.69</t>
+          <t>2333.81</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2381.02</t>
+          <t>2473.49</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2379.20</t>
+          <t>2472.51</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1877.21</t>
+          <t>2441.74</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>132.20</t>
+          <t>2468.67</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>313.86</t>
+          <t>737.04</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>133.98</t>
+          <t>2005.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>144.85</t>
+          <t>1592.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>145.13</t>
+          <t>1581.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1154.40</t>
+          <t>1518.27</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1148.72</t>
+          <t>1511.63</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2182.91</t>
+          <t>3185.89</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>367.74</t>
+          <t>3233.47</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1649.30</t>
+          <t>2429.08</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>264.57</t>
+          <t>2357.09</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>618.41</t>
+          <t>1844.38</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>553.77</t>
+          <t>1831.73</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1379.59</t>
+          <t>1740.98</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1369.26</t>
+          <t>1746.95</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2216.82</t>
+          <t>3198.09</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>687.84</t>
+          <t>3244.28</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1940.93</t>
+          <t>2416.61</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>914.47</t>
+          <t>2356.39</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1432.52</t>
+          <t>1870.25</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1425.51</t>
+          <t>1859.54</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1385.23</t>
+          <t>1749.94</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1372.03</t>
+          <t>1755.40</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2228.42</t>
+          <t>3206.32</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>606.54</t>
+          <t>3257.49</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1937.33</t>
+          <t>2417.00</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>890.66</t>
+          <t>2356.60</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1442.55</t>
+          <t>1840.90</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1460.47</t>
+          <t>1862.92</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1389.65</t>
+          <t>1747.29</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1376.45</t>
+          <t>1749.15</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2230.35</t>
+          <t>3212.05</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>370.92</t>
+          <t>3264.18</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1936.16</t>
+          <t>2419.22</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>522.79</t>
+          <t>2362.20</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1132.39</t>
+          <t>1843.86</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1158.80</t>
+          <t>1831.40</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1446.46</t>
+          <t>1767.36</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1440.28</t>
+          <t>1744.80</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2561.38</t>
+          <t>3216.08</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>368.78</t>
+          <t>3272.37</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>1932.87</t>
+          <t>2420.27</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>304.60</t>
+          <t>2395.96</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>673.42</t>
+          <t>1841.30</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>698.16</t>
+          <t>1828.94</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1446.45</t>
+          <t>1775.48</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1440.39</t>
+          <t>1760.44</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2549.61</t>
+          <t>3222.83</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>366.44</t>
+          <t>3276.88</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>1929.20</t>
+          <t>2423.96</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>282.58</t>
+          <t>2406.67</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>421.41</t>
+          <t>1845.10</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>446.08</t>
+          <t>1832.78</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1388.27</t>
+          <t>1785.41</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1378.21</t>
+          <t>1767.16</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>2550.39</t>
+          <t>3235.35</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>363.57</t>
+          <t>3287.08</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>1929.99</t>
+          <t>2433.91</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>242.28</t>
+          <t>2424.16</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>399.80</t>
+          <t>1855.86</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>423.57</t>
+          <t>1843.72</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1393.82</t>
+          <t>1798.92</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1383.62</t>
+          <t>1783.02</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>2660.98</t>
+          <t>3334.79</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>359.40</t>
+          <t>3402.70</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>1982.85</t>
+          <t>2569.23</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>354.65</t>
+          <t>2536.49</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>441.88</t>
+          <t>1948.69</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>498.39</t>
+          <t>1934.26</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1480.84</t>
+          <t>1894.41</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1469.80</t>
+          <t>1882.01</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>2885.49</t>
+          <t>4141.56</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>1807.04</t>
+          <t>3997.30</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>2280.68</t>
+          <t>3351.47</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>1781.96</t>
+          <t>3041.76</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>1490.63</t>
+          <t>2416.70</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>1422.47</t>
+          <t>2384.81</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1716.70</t>
+          <t>2551.32</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1710.27</t>
+          <t>2545.53</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1627.59</t>
+          <t>2366.76</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1590.70</t>
+          <t>2468.46</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>304.53</t>
+          <t>642.74</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1289.37</t>
+          <t>2024.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1011.66</t>
+          <t>1597.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1006.25</t>
+          <t>1586.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>977.99</t>
+          <t>1529.78</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>975.32</t>
+          <t>1534.61</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2298.49</t>
+          <t>3122.95</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2233.71</t>
+          <t>3181.40</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1747.22</t>
+          <t>2400.37</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1632.30</t>
+          <t>2366.63</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1236.16</t>
+          <t>1874.57</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1234.48</t>
+          <t>1860.28</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1217.82</t>
+          <t>1773.96</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1211.88</t>
+          <t>1766.09</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2306.08</t>
+          <t>3119.79</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2262.75</t>
+          <t>3152.16</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1755.21</t>
+          <t>2383.16</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1657.56</t>
+          <t>2356.83</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1254.45</t>
+          <t>1864.70</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1263.79</t>
+          <t>1852.25</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1226.16</t>
+          <t>1766.50</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1229.29</t>
+          <t>1756.98</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2312.40</t>
+          <t>3114.66</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2271.36</t>
+          <t>3149.42</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1764.70</t>
+          <t>2381.24</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1663.26</t>
+          <t>2354.80</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1258.99</t>
+          <t>1863.08</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1340.82</t>
+          <t>1858.40</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1232.76</t>
+          <t>1762.44</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1237.69</t>
+          <t>1751.58</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2313.68</t>
+          <t>3107.53</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2267.72</t>
+          <t>3148.59</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1781.20</t>
+          <t>2381.86</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1660.77</t>
+          <t>2349.94</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1253.90</t>
+          <t>1861.13</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1280.58</t>
+          <t>1849.24</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1229.48</t>
+          <t>1723.99</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1236.74</t>
+          <t>1701.51</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2300.61</t>
+          <t>3104.59</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2254.02</t>
+          <t>3148.00</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>1783.48</t>
+          <t>2379.75</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1652.15</t>
+          <t>2381.89</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1221.95</t>
+          <t>1862.99</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1230.14</t>
+          <t>1851.08</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1223.54</t>
+          <t>1729.81</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1232.46</t>
+          <t>1718.59</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2273.44</t>
+          <t>3104.83</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2250.27</t>
+          <t>3147.54</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>1785.30</t>
+          <t>2380.49</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1650.52</t>
+          <t>2385.55</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1220.99</t>
+          <t>1867.15</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1220.65</t>
+          <t>1855.11</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1218.31</t>
+          <t>1754.46</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1220.30</t>
+          <t>1726.03</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2261.75</t>
+          <t>3122.12</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2256.92</t>
+          <t>3154.73</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>1794.11</t>
+          <t>2392.71</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1657.22</t>
+          <t>2395.77</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1226.63</t>
+          <t>1878.66</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1237.58</t>
+          <t>1866.74</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1220.55</t>
+          <t>1768.12</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1230.59</t>
+          <t>1740.05</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2391.45</t>
+          <t>3237.32</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2364.32</t>
+          <t>3257.34</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>1853.20</t>
+          <t>2515.27</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1763.19</t>
+          <t>2517.43</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1333.70</t>
+          <t>1977.89</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1341.29</t>
+          <t>1966.22</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1299.48</t>
+          <t>1858.01</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1301.01</t>
+          <t>1849.22</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3235.29</t>
+          <t>4090.70</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3147.52</t>
+          <t>4006.55</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2623.77</t>
+          <t>3296.68</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2367.63</t>
+          <t>3092.52</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1784.33</t>
+          <t>2395.84</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1765.42</t>
+          <t>2362.61</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>1925.13</t>
+          <t>2548.56</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>1931.25</t>
+          <t>2538.61</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1674.26</t>
+          <t>2309.94</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1676.48</t>
+          <t>2404.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>246.51</t>
+          <t>603.86</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1404.56</t>
+          <t>2001.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1088.15</t>
+          <t>1602.96</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1081.97</t>
+          <t>1593.57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>960.14</t>
+          <t>1476.47</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>964.17</t>
+          <t>1473.83</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2206.66</t>
+          <t>2932.45</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2276.74</t>
+          <t>3076.74</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1774.04</t>
+          <t>2368.65</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1782.64</t>
+          <t>2354.84</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1300.51</t>
+          <t>1823.28</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1291.09</t>
+          <t>1863.12</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1156.10</t>
+          <t>1673.06</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1175.94</t>
+          <t>1679.76</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2204.22</t>
+          <t>2935.32</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2307.75</t>
+          <t>3064.62</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1737.91</t>
+          <t>2333.32</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1783.28</t>
+          <t>2351.84</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1295.37</t>
+          <t>1869.46</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1286.54</t>
+          <t>1864.07</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1174.75</t>
+          <t>1668.04</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1187.29</t>
+          <t>1677.11</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2206.51</t>
+          <t>2942.64</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2314.05</t>
+          <t>3065.01</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1735.96</t>
+          <t>2323.06</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1786.32</t>
+          <t>2351.99</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1298.70</t>
+          <t>1823.40</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1290.11</t>
+          <t>1864.76</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1179.27</t>
+          <t>1674.27</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1191.28</t>
+          <t>1664.61</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2210.44</t>
+          <t>2964.78</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2314.79</t>
+          <t>3066.88</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1738.78</t>
+          <t>2321.27</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1788.96</t>
+          <t>2352.44</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1309.38</t>
+          <t>1834.77</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1303.95</t>
+          <t>1822.54</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1181.14</t>
+          <t>1671.17</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1194.07</t>
+          <t>1660.52</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2213.75</t>
+          <t>2982.06</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2314.03</t>
+          <t>3073.11</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>1741.91</t>
+          <t>2315.48</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1791.09</t>
+          <t>2384.59</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1305.41</t>
+          <t>1844.42</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1300.08</t>
+          <t>1832.15</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1164.75</t>
+          <t>1676.52</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1177.71</t>
+          <t>1665.87</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2217.46</t>
+          <t>2986.60</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2313.73</t>
+          <t>3079.46</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>1745.73</t>
+          <t>2319.51</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1793.80</t>
+          <t>2405.45</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1307.60</t>
+          <t>1853.93</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1299.48</t>
+          <t>1841.55</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1166.17</t>
+          <t>1682.11</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1177.43</t>
+          <t>1671.44</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2226.43</t>
+          <t>2993.45</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2317.51</t>
+          <t>3085.39</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>1754.48</t>
+          <t>2346.61</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1801.20</t>
+          <t>2423.89</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1316.15</t>
+          <t>1874.16</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1313.17</t>
+          <t>1861.77</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1171.84</t>
+          <t>1693.35</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1168.69</t>
+          <t>1682.68</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2314.56</t>
+          <t>3088.44</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2387.66</t>
+          <t>3175.62</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>1802.99</t>
+          <t>2462.93</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>1893.16</t>
+          <t>2514.93</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1393.92</t>
+          <t>1964.34</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1385.60</t>
+          <t>1952.87</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1246.95</t>
+          <t>1771.52</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1240.00</t>
+          <t>1760.74</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3047.97</t>
+          <t>3866.66</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3043.78</t>
+          <t>3892.98</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2392.34</t>
+          <t>3181.54</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2348.90</t>
+          <t>3087.74</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1806.25</t>
+          <t>2396.01</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1784.00</t>
+          <t>2375.28</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1788.41</t>
+          <t>2401.13</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1787.59</t>
+          <t>2403.74</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1816.22</t>
+          <t>2263.90</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1979.20</t>
+          <t>2417.63</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>162.65</t>
+          <t>801.65</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1577.29</t>
+          <t>2005.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1230.89</t>
+          <t>1588.22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1223.10</t>
+          <t>1578.82</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1070.19</t>
+          <t>1420.92</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1082.36</t>
+          <t>1414.71</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2415.11</t>
+          <t>2880.89</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2588.40</t>
+          <t>3024.97</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1944.85</t>
+          <t>2300.21</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1946.48</t>
+          <t>2326.43</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1476.71</t>
+          <t>1811.68</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1467.33</t>
+          <t>1799.68</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1298.07</t>
+          <t>1627.59</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1291.64</t>
+          <t>1617.17</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2409.65</t>
+          <t>2887.61</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2582.06</t>
+          <t>3021.16</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1897.01</t>
+          <t>2281.75</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1963.45</t>
+          <t>2325.05</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1475.76</t>
+          <t>1805.90</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1468.06</t>
+          <t>1793.98</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1299.16</t>
+          <t>1625.38</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1290.43</t>
+          <t>1613.84</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2409.65</t>
+          <t>2897.69</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2585.72</t>
+          <t>3029.27</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>1891.19</t>
+          <t>2281.19</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1971.14</t>
+          <t>2330.31</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1480.74</t>
+          <t>1811.26</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1472.17</t>
+          <t>1799.40</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1305.88</t>
+          <t>1632.23</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1297.02</t>
+          <t>1620.48</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2410.20</t>
+          <t>2907.72</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2585.99</t>
+          <t>3037.60</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1884.04</t>
+          <t>2284.10</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>1962.95</t>
+          <t>2336.53</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1484.46</t>
+          <t>1817.17</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1474.54</t>
+          <t>1805.36</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1311.77</t>
+          <t>1639.17</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1302.95</t>
+          <t>1627.42</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2407.85</t>
+          <t>2916.69</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2586.05</t>
+          <t>3045.13</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>1876.85</t>
+          <t>2288.21</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>1954.09</t>
+          <t>2370.57</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1488.48</t>
+          <t>1822.61</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1478.62</t>
+          <t>1810.83</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1316.42</t>
+          <t>1645.43</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1307.48</t>
+          <t>1633.70</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2409.61</t>
+          <t>2925.53</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2587.16</t>
+          <t>3052.75</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>1870.20</t>
+          <t>2296.24</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1956.04</t>
+          <t>2382.05</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1491.52</t>
+          <t>1828.43</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1481.52</t>
+          <t>1816.69</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1319.85</t>
+          <t>1651.93</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1311.92</t>
+          <t>1640.24</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2418.86</t>
+          <t>2955.04</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2596.00</t>
+          <t>3107.37</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>1875.08</t>
+          <t>2334.31</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>1962.92</t>
+          <t>2431.88</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1500.25</t>
+          <t>1840.51</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1495.51</t>
+          <t>1828.82</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1330.00</t>
+          <t>1664.44</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1320.39</t>
+          <t>1652.80</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2515.89</t>
+          <t>3056.48</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2693.14</t>
+          <t>3215.22</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>1940.16</t>
+          <t>2450.56</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2053.81</t>
+          <t>2543.98</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1579.84</t>
+          <t>1924.16</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1569.88</t>
+          <t>1912.44</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1407.08</t>
+          <t>1746.77</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1399.24</t>
+          <t>1735.10</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3128.12</t>
+          <t>3765.10</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3293.05</t>
+          <t>3879.70</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2474.38</t>
+          <t>3182.77</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2537.68</t>
+          <t>3113.54</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>1973.31</t>
+          <t>2385.71</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>1948.74</t>
+          <t>2361.93</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>1865.14</t>
+          <t>2345.30</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>1861.13</t>
+          <t>2347.64</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1526.55</t>
+          <t>2201.16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1689.48</t>
+          <t>2339.76</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>563.04</t>
+          <t>965.70</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1310.38</t>
+          <t>1932.95</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1019.10</t>
+          <t>1543.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1012.95</t>
+          <t>1534.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>859.61</t>
+          <t>1377.28</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>881.81</t>
+          <t>1373.43</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1969.30</t>
+          <t>2744.55</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2145.97</t>
+          <t>2892.44</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1632.18</t>
+          <t>2202.92</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1664.71</t>
+          <t>2240.37</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1233.06</t>
+          <t>1764.76</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1224.61</t>
+          <t>1753.10</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1068.99</t>
+          <t>1579.37</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1079.96</t>
+          <t>1569.59</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1955.86</t>
+          <t>2746.32</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2129.53</t>
+          <t>2883.44</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1604.04</t>
+          <t>2182.75</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1671.49</t>
+          <t>2232.92</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1225.12</t>
+          <t>1757.01</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1216.93</t>
+          <t>1745.43</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1078.74</t>
+          <t>1575.28</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1087.33</t>
+          <t>1564.19</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>1956.80</t>
+          <t>2753.75</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2132.12</t>
+          <t>2888.78</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1599.95</t>
+          <t>2183.41</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1672.13</t>
+          <t>2234.95</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1226.25</t>
+          <t>1761.29</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1218.23</t>
+          <t>1749.78</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1084.91</t>
+          <t>1581.12</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1091.44</t>
+          <t>1569.74</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>1959.13</t>
+          <t>2761.95</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2133.01</t>
+          <t>2895.21</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1599.68</t>
+          <t>2188.42</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1671.42</t>
+          <t>2238.52</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1227.69</t>
+          <t>1766.44</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1219.74</t>
+          <t>1754.99</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1089.90</t>
+          <t>1587.36</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1090.00</t>
+          <t>1575.97</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>1961.31</t>
+          <t>2769.49</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2134.10</t>
+          <t>2901.23</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1600.04</t>
+          <t>2193.67</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1670.29</t>
+          <t>2274.60</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1228.93</t>
+          <t>1771.26</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1221.00</t>
+          <t>1759.85</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1086.67</t>
+          <t>1593.07</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1087.21</t>
+          <t>1581.71</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>1963.86</t>
+          <t>2777.13</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2135.74</t>
+          <t>2907.59</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1601.15</t>
+          <t>2199.38</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1669.56</t>
+          <t>2283.08</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1230.61</t>
+          <t>1776.55</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1222.63</t>
+          <t>1765.19</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1090.63</t>
+          <t>1599.08</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1090.46</t>
+          <t>1587.77</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>1971.40</t>
+          <t>2790.33</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2142.82</t>
+          <t>2919.89</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1606.77</t>
+          <t>2210.27</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1672.05</t>
+          <t>2297.58</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1237.23</t>
+          <t>1788.09</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1234.76</t>
+          <t>1776.79</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1081.73</t>
+          <t>1611.05</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1089.92</t>
+          <t>1599.79</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2055.84</t>
+          <t>2879.70</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2230.36</t>
+          <t>3012.81</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1649.42</t>
+          <t>2339.41</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1748.70</t>
+          <t>2389.72</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1309.86</t>
+          <t>1870.58</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1301.93</t>
+          <t>1859.24</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1143.16</t>
+          <t>1692.07</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1135.89</t>
+          <t>1680.75</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2681.93</t>
+          <t>3454.95</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>2845.97</t>
+          <t>3570.72</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2024.43</t>
+          <t>2817.31</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2167.01</t>
+          <t>2800.85</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1655.15</t>
+          <t>2227.87</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1633.61</t>
+          <t>2201.58</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1570.87</t>
+          <t>2221.51</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1573.96</t>
+          <t>2220.87</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1614.17</t>
+          <t>2111.34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1772.52</t>
+          <t>2246.14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>693.08</t>
+          <t>1264.40</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1393.40</t>
+          <t>1864.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1029.34</t>
+          <t>1483.99</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1024.00</t>
+          <t>1475.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>938.20</t>
+          <t>1327.09</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>952.94</t>
+          <t>1326.09</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2041.27</t>
+          <t>2632.29</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2207.97</t>
+          <t>2772.36</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1687.42</t>
+          <t>2173.14</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1712.55</t>
+          <t>2195.83</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1231.05</t>
+          <t>1693.96</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1223.50</t>
+          <t>1682.94</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1124.72</t>
+          <t>1518.54</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1124.98</t>
+          <t>1510.81</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2023.43</t>
+          <t>2632.73</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2187.66</t>
+          <t>2763.40</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1631.54</t>
+          <t>2139.59</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1699.28</t>
+          <t>2193.87</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1216.92</t>
+          <t>1686.16</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1209.67</t>
+          <t>1675.21</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1115.99</t>
+          <t>1514.57</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1113.00</t>
+          <t>1504.38</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2022.54</t>
+          <t>2640.34</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2188.57</t>
+          <t>2768.37</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1622.47</t>
+          <t>2145.28</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1696.42</t>
+          <t>2198.24</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1216.82</t>
+          <t>1690.20</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1209.72</t>
+          <t>1679.32</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1115.12</t>
+          <t>1520.47</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1114.47</t>
+          <t>1509.83</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2023.62</t>
+          <t>2648.56</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2188.37</t>
+          <t>2774.35</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1621.63</t>
+          <t>2151.32</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1695.60</t>
+          <t>2201.43</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1218.18</t>
+          <t>1695.13</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1211.17</t>
+          <t>1684.31</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1116.55</t>
+          <t>1526.79</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1116.85</t>
+          <t>1516.11</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2024.86</t>
+          <t>2656.03</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2188.55</t>
+          <t>2779.92</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1622.20</t>
+          <t>2156.72</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1695.18</t>
+          <t>2235.64</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1219.63</t>
+          <t>1699.76</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1212.67</t>
+          <t>1688.97</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1116.83</t>
+          <t>1532.56</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1120.03</t>
+          <t>1521.90</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2028.18</t>
+          <t>2663.49</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2189.55</t>
+          <t>2785.79</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1623.80</t>
+          <t>2161.99</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1695.63</t>
+          <t>2243.66</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1221.69</t>
+          <t>1704.83</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1214.69</t>
+          <t>1694.08</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1116.30</t>
+          <t>1538.58</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1120.41</t>
+          <t>1527.96</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2036.54</t>
+          <t>2676.22</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2197.25</t>
+          <t>2797.30</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1630.43</t>
+          <t>2172.63</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1700.80</t>
+          <t>2257.76</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1229.09</t>
+          <t>1715.93</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1227.55</t>
+          <t>1705.25</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1111.13</t>
+          <t>1550.34</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1116.69</t>
+          <t>1539.75</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2120.42</t>
+          <t>2763.54</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2283.34</t>
+          <t>2885.61</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1673.94</t>
+          <t>2297.27</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1787.22</t>
+          <t>2347.54</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1303.01</t>
+          <t>1794.86</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1295.98</t>
+          <t>1784.25</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1138.53</t>
+          <t>1628.16</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1135.05</t>
+          <t>1617.50</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2752.74</t>
+          <t>3321.56</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>2901.37</t>
+          <t>3425.53</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2076.95</t>
+          <t>2731.96</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2233.22</t>
+          <t>2788.79</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1709.23</t>
+          <t>2142.20</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1689.44</t>
+          <t>2117.97</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1628.67</t>
+          <t>2137.03</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1630.90</t>
+          <t>2136.84</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1641.38</t>
+          <t>2100.36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1732.90</t>
+          <t>2225.24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>851.25</t>
+          <t>1483.87</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1375.01</t>
+          <t>1848.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1058.12</t>
+          <t>1434.91</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1060.84</t>
+          <t>1428.59</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>946.37</t>
+          <t>1335.98</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>962.44</t>
+          <t>1342.21</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2047.17</t>
+          <t>2459.94</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2139.29</t>
+          <t>2571.59</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1718.90</t>
+          <t>2194.33</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1673.88</t>
+          <t>2188.34</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1217.61</t>
+          <t>1639.89</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1215.51</t>
+          <t>1630.84</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1123.86</t>
+          <t>1520.26</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1126.08</t>
+          <t>1520.46</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2019.58</t>
+          <t>2455.13</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2114.48</t>
+          <t>2566.11</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1650.30</t>
+          <t>2158.06</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1653.37</t>
+          <t>2191.88</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1194.73</t>
+          <t>1627.93</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1200.15</t>
+          <t>1618.30</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1111.79</t>
+          <t>1501.52</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1109.00</t>
+          <t>1503.79</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2013.73</t>
+          <t>2470.47</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2113.25</t>
+          <t>2575.62</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1634.71</t>
+          <t>2157.88</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1647.27</t>
+          <t>2198.57</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1190.63</t>
+          <t>1630.74</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1196.29</t>
+          <t>1621.90</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1111.99</t>
+          <t>1506.50</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1107.23</t>
+          <t>1498.25</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2011.60</t>
+          <t>2486.53</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2111.84</t>
+          <t>2584.00</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1630.94</t>
+          <t>2166.34</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1644.67</t>
+          <t>2206.34</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1190.72</t>
+          <t>1635.87</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1196.34</t>
+          <t>1628.91</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1114.22</t>
+          <t>1512.73</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1108.77</t>
+          <t>1503.97</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2010.39</t>
+          <t>2501.21</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2111.18</t>
+          <t>2590.58</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1629.84</t>
+          <t>2174.21</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1643.04</t>
+          <t>2242.18</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1191.48</t>
+          <t>1641.96</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1197.03</t>
+          <t>1635.51</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1116.70</t>
+          <t>1518.81</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1111.06</t>
+          <t>1509.96</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2010.19</t>
+          <t>2515.39</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2111.50</t>
+          <t>2598.36</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1630.50</t>
+          <t>2182.33</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1642.52</t>
+          <t>2252.92</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1191.76</t>
+          <t>1651.71</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1196.83</t>
+          <t>1643.28</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1119.49</t>
+          <t>1525.55</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1113.78</t>
+          <t>1516.73</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2015.35</t>
+          <t>2535.19</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2117.71</t>
+          <t>2613.38</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1636.07</t>
+          <t>2195.27</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1646.92</t>
+          <t>2270.27</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1195.94</t>
+          <t>1668.78</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1202.04</t>
+          <t>1659.01</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1126.59</t>
+          <t>1539.80</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1120.85</t>
+          <t>1530.52</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2094.91</t>
+          <t>2644.07</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2203.42</t>
+          <t>2716.54</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>1676.60</t>
+          <t>2318.80</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1729.47</t>
+          <t>2365.69</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1267.78</t>
+          <t>1759.03</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1260.20</t>
+          <t>1750.15</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1193.53</t>
+          <t>1622.17</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1186.84</t>
+          <t>1614.32</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2712.51</t>
+          <t>3277.89</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2796.45</t>
+          <t>3346.09</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2118.71</t>
+          <t>2709.06</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2184.57</t>
+          <t>2796.68</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1660.49</t>
+          <t>2126.32</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1640.26</t>
+          <t>2104.98</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1656.80</t>
+          <t>2171.71</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1662.27</t>
+          <t>2176.14</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1731.65</t>
+          <t>2324.32</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1787.40</t>
+          <t>2444.27</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1000.46</t>
+          <t>1516.66</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1471.21</t>
+          <t>2004.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1159.32</t>
+          <t>1589.29</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1158.44</t>
+          <t>1581.31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1104.34</t>
+          <t>1448.14</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1117.47</t>
+          <t>1454.32</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2182.67</t>
+          <t>2888.61</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2210.19</t>
+          <t>3020.50</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1825.77</t>
+          <t>2343.54</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1790.22</t>
+          <t>2317.11</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1320.80</t>
+          <t>1813.39</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1311.48</t>
+          <t>1802.14</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1286.56</t>
+          <t>1638.94</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1286.99</t>
+          <t>1637.20</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2154.94</t>
+          <t>2888.68</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2179.74</t>
+          <t>3008.84</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1769.52</t>
+          <t>2313.54</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1737.25</t>
+          <t>2310.62</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1303.14</t>
+          <t>1805.75</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1293.82</t>
+          <t>1794.47</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1236.71</t>
+          <t>1630.37</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1271.51</t>
+          <t>1621.21</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2149.33</t>
+          <t>2897.89</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2176.97</t>
+          <t>3016.32</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1760.32</t>
+          <t>2311.35</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1727.52</t>
+          <t>2314.15</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1301.06</t>
+          <t>1811.78</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1291.77</t>
+          <t>1800.54</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1227.40</t>
+          <t>1636.11</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1239.73</t>
+          <t>1626.01</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2147.41</t>
+          <t>2902.86</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2174.52</t>
+          <t>3024.37</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1761.52</t>
+          <t>2311.54</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1731.04</t>
+          <t>2319.13</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1301.40</t>
+          <t>1818.76</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1292.16</t>
+          <t>1807.56</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1222.84</t>
+          <t>1644.97</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1232.06</t>
+          <t>1634.07</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2146.51</t>
+          <t>2911.67</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2173.11</t>
+          <t>3031.73</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1764.69</t>
+          <t>2317.56</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1722.88</t>
+          <t>2353.19</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1302.26</t>
+          <t>1825.27</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1293.08</t>
+          <t>1814.08</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1219.50</t>
+          <t>1652.35</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1231.87</t>
+          <t>1641.40</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2146.42</t>
+          <t>2920.36</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2172.76</t>
+          <t>3039.19</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1768.67</t>
+          <t>2324.00</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1726.51</t>
+          <t>2362.46</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1304.06</t>
+          <t>1832.17</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1294.88</t>
+          <t>1821.03</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1215.81</t>
+          <t>1660.11</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1228.69</t>
+          <t>1649.19</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2151.53</t>
+          <t>2934.28</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2178.15</t>
+          <t>3052.33</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>1776.76</t>
+          <t>2335.69</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1734.70</t>
+          <t>2378.93</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1311.45</t>
+          <t>1845.75</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1307.62</t>
+          <t>1834.69</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1203.24</t>
+          <t>1675.19</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1216.99</t>
+          <t>1664.13</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2232.52</t>
+          <t>3026.69</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2261.82</t>
+          <t>3149.02</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>1820.58</t>
+          <t>2467.84</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1767.28</t>
+          <t>2478.17</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1374.53</t>
+          <t>1933.49</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1369.04</t>
+          <t>1922.39</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1262.56</t>
+          <t>1770.00</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1256.45</t>
+          <t>1758.73</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2801.93</t>
+          <t>3639.03</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2828.68</t>
+          <t>3769.26</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2310.66</t>
+          <t>2997.33</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2250.36</t>
+          <t>2903.97</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1697.26</t>
+          <t>2329.60</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1714.41</t>
+          <t>2300.51</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>1786.64</t>
+          <t>2342.55</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>1789.99</t>
+          <t>2343.15</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2181.72</t>
+          <t>2385.12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2226.53</t>
+          <t>2457.32</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1270.67</t>
+          <t>1733.70</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1826.65</t>
+          <t>2034.68</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1410.55</t>
+          <t>1644.25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1401.21</t>
+          <t>1635.34</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1324.88</t>
+          <t>1547.15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1336.59</t>
+          <t>1555.04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2839.08</t>
+          <t>3002.54</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2844.39</t>
+          <t>3103.54</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2246.93</t>
+          <t>2454.50</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2158.86</t>
+          <t>2356.31</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1617.28</t>
+          <t>1847.37</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1608.53</t>
+          <t>1836.17</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1529.85</t>
+          <t>1761.74</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1512.60</t>
+          <t>1758.62</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2828.09</t>
+          <t>2988.92</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2849.20</t>
+          <t>3072.83</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2250.63</t>
+          <t>2416.13</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2150.70</t>
+          <t>2353.08</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1618.94</t>
+          <t>1833.79</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1600.51</t>
+          <t>1821.72</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1540.75</t>
+          <t>1747.66</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1522.82</t>
+          <t>1740.71</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2826.46</t>
+          <t>2996.02</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2857.57</t>
+          <t>3074.55</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2247.39</t>
+          <t>2411.15</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2152.79</t>
+          <t>2352.36</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1653.97</t>
+          <t>1837.84</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1629.69</t>
+          <t>1825.85</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1548.27</t>
+          <t>1739.61</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1540.02</t>
+          <t>1736.04</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2837.72</t>
+          <t>3006.26</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2848.49</t>
+          <t>3080.59</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2254.99</t>
+          <t>2424.26</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2159.38</t>
+          <t>2354.36</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1652.52</t>
+          <t>1842.76</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1649.72</t>
+          <t>1830.81</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1552.57</t>
+          <t>1733.40</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1545.96</t>
+          <t>1732.47</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2843.35</t>
+          <t>3013.68</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2829.21</t>
+          <t>3086.62</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2260.69</t>
+          <t>2432.62</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2160.54</t>
+          <t>2386.51</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1648.59</t>
+          <t>1844.94</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1647.71</t>
+          <t>1833.05</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1561.35</t>
+          <t>1745.56</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1549.87</t>
+          <t>1721.21</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2850.88</t>
+          <t>3021.67</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2825.43</t>
+          <t>3093.19</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2265.61</t>
+          <t>2437.14</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2166.19</t>
+          <t>2395.68</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1639.48</t>
+          <t>1849.98</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1644.38</t>
+          <t>1838.13</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1568.01</t>
+          <t>1748.68</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1556.70</t>
+          <t>1732.77</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2847.25</t>
+          <t>3035.80</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2831.51</t>
+          <t>3107.17</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2275.80</t>
+          <t>2446.04</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2174.69</t>
+          <t>2408.87</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1646.90</t>
+          <t>1861.40</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1645.53</t>
+          <t>1849.63</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1579.64</t>
+          <t>1758.93</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1572.01</t>
+          <t>1752.09</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>2940.60</t>
+          <t>3133.83</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2912.22</t>
+          <t>3210.24</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2327.01</t>
+          <t>2573.88</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2274.57</t>
+          <t>2511.88</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1716.70</t>
+          <t>1950.27</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1720.04</t>
+          <t>1938.48</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1675.33</t>
+          <t>1837.05</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1659.20</t>
+          <t>1828.06</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3702.70</t>
+          <t>3832.79</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3697.21</t>
+          <t>3833.55</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3073.79</t>
+          <t>3244.25</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2905.01</t>
+          <t>3053.05</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2204.70</t>
+          <t>2371.27</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2195.61</t>
+          <t>2348.79</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2255.56</t>
+          <t>2451.99</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2252.00</t>
+          <t>2454.90</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2336.37</t>
+          <t>2409.81</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2316.96</t>
+          <t>2504.41</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1056.23</t>
+          <t>1382.06</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1896.96</t>
+          <t>2084.48</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1501.27</t>
+          <t>1653.76</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1494.14</t>
+          <t>1679.22</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1488.35</t>
+          <t>1571.53</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1522.57</t>
+          <t>1561.01</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3069.91</t>
+          <t>3092.29</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2765.68</t>
+          <t>3238.78</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2430.12</t>
+          <t>2440.46</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2222.20</t>
+          <t>2388.80</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1718.41</t>
+          <t>1878.98</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1709.14</t>
+          <t>1868.51</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1632.02</t>
+          <t>1764.54</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1642.94</t>
+          <t>1783.98</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3149.17</t>
+          <t>3090.01</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2764.29</t>
+          <t>3226.76</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2439.56</t>
+          <t>2430.73</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2203.00</t>
+          <t>2382.87</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1700.62</t>
+          <t>1875.14</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1691.65</t>
+          <t>1864.67</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1805.09</t>
+          <t>1757.34</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1794.91</t>
+          <t>1766.68</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,87 +5532,87 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3088.71</t>
+          <t>3099.06</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2771.78</t>
+          <t>3173.67</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
+          <t>2432.03</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>2384.94</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>1867.58</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>1869.27</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>1759.20</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>1755.51</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>3108.88</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>3178.41</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>2449.46</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
           <t>2387.03</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>2189.58</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>1695.36</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>1686.13</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>1778.23</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>1767.68</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>3094.79</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>2774.17</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>2393.18</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>2093.02</t>
-        </is>
-      </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1622.44</t>
+          <t>1872.63</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1639.07</t>
+          <t>1861.07</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1784.67</t>
+          <t>1763.94</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1774.09</t>
+          <t>1756.60</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3100.03</t>
+          <t>3117.88</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2777.54</t>
+          <t>3135.30</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2399.13</t>
+          <t>2453.91</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2092.86</t>
+          <t>2420.17</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1622.72</t>
+          <t>1876.44</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1613.67</t>
+          <t>1865.16</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1790.39</t>
+          <t>1769.98</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1779.82</t>
+          <t>1760.03</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3105.54</t>
+          <t>3125.84</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2781.77</t>
+          <t>3150.94</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2405.12</t>
+          <t>2458.62</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2095.15</t>
+          <t>2427.64</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1626.06</t>
+          <t>1881.61</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1616.09</t>
+          <t>1870.22</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1796.34</t>
+          <t>1766.17</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1785.76</t>
+          <t>1768.09</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3116.76</t>
+          <t>3139.99</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2792.56</t>
+          <t>3163.60</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2415.31</t>
+          <t>2469.46</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2104.07</t>
+          <t>2441.43</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1636.28</t>
+          <t>1893.18</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1630.36</t>
+          <t>1881.77</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1807.73</t>
+          <t>1776.70</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1797.14</t>
+          <t>1767.21</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3211.57</t>
+          <t>3231.08</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2892.87</t>
+          <t>3310.17</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2462.24</t>
+          <t>2578.77</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2208.76</t>
+          <t>2547.89</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1727.72</t>
+          <t>2000.79</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1718.47</t>
+          <t>1991.91</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1889.87</t>
+          <t>1880.58</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1879.07</t>
+          <t>1876.08</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3993.59</t>
+          <t>4020.30</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3442.43</t>
+          <t>3951.02</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3229.96</t>
+          <t>3358.31</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2645.09</t>
+          <t>3040.79</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>1965.04</t>
+          <t>2426.98</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>1929.56</t>
+          <t>2404.37</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2406.46</t>
+          <t>2548.70</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2410.02</t>
+          <t>2556.61</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2419.09</t>
+          <t>2355.53</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2068.89</t>
+          <t>2464.90</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>452.89</t>
+          <t>668.41</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1675.28</t>
+          <t>2018.88</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1349.80</t>
+          <t>1627.62</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1341.62</t>
+          <t>1618.94</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1460.70</t>
+          <t>1541.29</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1492.10</t>
+          <t>1546.15</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3237.36</t>
+          <t>3214.23</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2682.80</t>
+          <t>3199.27</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2487.02</t>
+          <t>2412.99</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1982.90</t>
+          <t>2361.20</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1556.14</t>
+          <t>1892.14</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1545.61</t>
+          <t>1881.11</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1792.56</t>
+          <t>1795.87</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1778.31</t>
+          <t>1785.26</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3213.80</t>
+          <t>3214.29</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2425.33</t>
+          <t>3189.93</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2465.21</t>
+          <t>2397.30</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1973.89</t>
+          <t>2354.76</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1544.41</t>
+          <t>1889.27</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1534.08</t>
+          <t>1877.38</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1790.40</t>
+          <t>1790.54</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1783.45</t>
+          <t>1779.60</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3189.06</t>
+          <t>3211.93</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2197.09</t>
+          <t>3188.32</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2464.82</t>
+          <t>2391.57</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>1967.46</t>
+          <t>2352.76</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1565.93</t>
+          <t>1889.50</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1572.85</t>
+          <t>1878.16</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1792.42</t>
+          <t>1780.74</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1784.69</t>
+          <t>1770.01</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3161.27</t>
+          <t>3208.87</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2196.74</t>
+          <t>3187.89</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2469.77</t>
+          <t>2349.04</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>1961.87</t>
+          <t>2351.14</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1537.41</t>
+          <t>1866.68</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1527.23</t>
+          <t>1855.60</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1797.90</t>
+          <t>1768.62</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1787.43</t>
+          <t>1759.15</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3085.01</t>
+          <t>3125.81</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2196.37</t>
+          <t>3188.72</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2481.32</t>
+          <t>2353.41</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>1958.59</t>
+          <t>2385.31</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1535.70</t>
+          <t>1871.87</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1525.53</t>
+          <t>1860.91</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1737.53</t>
+          <t>1770.90</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1727.15</t>
+          <t>1761.78</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3090.64</t>
+          <t>3133.12</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2601.14</t>
+          <t>3191.70</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2443.10</t>
+          <t>2358.07</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1724.05</t>
+          <t>2387.15</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1535.55</t>
+          <t>1879.44</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1525.37</t>
+          <t>1866.48</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1743.48</t>
+          <t>1775.55</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1733.14</t>
+          <t>1765.46</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3100.56</t>
+          <t>3145.43</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2610.11</t>
+          <t>3198.88</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2451.87</t>
+          <t>2367.16</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>1657.65</t>
+          <t>2400.76</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1541.99</t>
+          <t>1894.64</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1535.44</t>
+          <t>1882.02</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1754.17</t>
+          <t>1786.68</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1744.02</t>
+          <t>1776.05</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3303.44</t>
+          <t>3220.50</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2319.71</t>
+          <t>3292.39</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2555.98</t>
+          <t>2494.10</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>1760.28</t>
+          <t>2494.84</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1614.51</t>
+          <t>1988.95</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1604.38</t>
+          <t>1977.38</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1916.88</t>
+          <t>1868.83</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1907.07</t>
+          <t>1858.32</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4201.78</t>
+          <t>4078.63</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>2832.79</t>
+          <t>3973.97</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3409.64</t>
+          <t>3331.50</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2162.08</t>
+          <t>2975.69</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>1692.44</t>
+          <t>2432.41</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>1676.22</t>
+          <t>2405.78</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2593.70</t>
+          <t>2535.33</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2597.13</t>
+          <t>2535.92</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1526.55</t>
+          <t>2100.36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>132.20</t>
+          <t>2225.24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>162.65</t>
+          <t>603.86</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>133.98</t>
+          <t>1848.42</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>144.85</t>
+          <t>1434.91</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>145.13</t>
+          <t>1428.59</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>859.61</t>
+          <t>1327.09</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>881.81</t>
+          <t>1326.09</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1969.30</t>
+          <t>2459.94</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>367.74</t>
+          <t>2571.59</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1632.18</t>
+          <t>2173.14</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>264.57</t>
+          <t>2188.34</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>618.41</t>
+          <t>1639.89</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>553.77</t>
+          <t>1630.84</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1068.99</t>
+          <t>1518.54</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1079.96</t>
+          <t>1510.81</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>1955.86</t>
+          <t>2455.13</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>687.84</t>
+          <t>2566.11</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1604.04</t>
+          <t>2139.59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>914.47</t>
+          <t>2191.88</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1194.73</t>
+          <t>1627.93</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1200.15</t>
+          <t>1618.30</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1078.74</t>
+          <t>1501.52</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1087.33</t>
+          <t>1503.79</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>1956.80</t>
+          <t>2470.47</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>606.54</t>
+          <t>2575.62</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1599.95</t>
+          <t>2145.28</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>890.66</t>
+          <t>2198.24</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1190.63</t>
+          <t>1630.74</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1196.29</t>
+          <t>1621.90</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1084.91</t>
+          <t>1506.50</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1091.44</t>
+          <t>1498.25</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>1959.13</t>
+          <t>2486.53</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>370.92</t>
+          <t>2584.00</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1599.68</t>
+          <t>2151.32</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>522.79</t>
+          <t>2201.43</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1132.39</t>
+          <t>1635.87</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1158.80</t>
+          <t>1628.91</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1089.90</t>
+          <t>1512.73</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1090.00</t>
+          <t>1503.97</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>1961.31</t>
+          <t>2501.21</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>368.78</t>
+          <t>2590.58</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1600.04</t>
+          <t>2156.72</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>304.60</t>
+          <t>2235.64</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>673.42</t>
+          <t>1641.96</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>698.16</t>
+          <t>1635.51</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1086.67</t>
+          <t>1518.81</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1087.21</t>
+          <t>1509.96</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>1963.86</t>
+          <t>2515.39</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>366.44</t>
+          <t>2598.36</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1601.15</t>
+          <t>2161.99</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>282.58</t>
+          <t>2243.66</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>421.41</t>
+          <t>1651.71</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>446.08</t>
+          <t>1643.28</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1090.63</t>
+          <t>1525.55</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1090.46</t>
+          <t>1516.73</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>1971.40</t>
+          <t>2535.19</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>363.57</t>
+          <t>2613.38</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>1606.77</t>
+          <t>2172.63</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>242.28</t>
+          <t>2257.76</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>399.80</t>
+          <t>1668.78</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>423.57</t>
+          <t>1659.01</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1081.73</t>
+          <t>1539.80</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1089.92</t>
+          <t>1530.52</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2055.84</t>
+          <t>2644.07</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>359.40</t>
+          <t>2716.54</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>1649.42</t>
+          <t>2297.27</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>354.65</t>
+          <t>2347.54</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>441.88</t>
+          <t>1759.03</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>498.39</t>
+          <t>1750.15</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1138.53</t>
+          <t>1622.17</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1135.05</t>
+          <t>1614.32</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>2681.93</t>
+          <t>3277.89</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>1807.04</t>
+          <t>3346.09</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>2024.43</t>
+          <t>2709.06</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>1522.22</t>
+          <t>2788.79</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>1490.63</t>
+          <t>2126.32</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>1422.47</t>
+          <t>2104.98</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1570.87</t>
+          <t>2137.03</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1573.96</t>
+          <t>2136.84</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2419.09</t>
+          <t>2441.74</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2316.96</t>
+          <t>2504.41</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1270.67</t>
+          <t>1733.70</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1896.96</t>
+          <t>2084.48</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1501.27</t>
+          <t>1653.76</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1494.14</t>
+          <t>1679.22</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1488.35</t>
+          <t>1571.53</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1522.57</t>
+          <t>1574.85</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3237.36</t>
+          <t>3214.23</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2844.39</t>
+          <t>3238.78</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2487.02</t>
+          <t>2454.50</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2222.20</t>
+          <t>2388.80</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1718.41</t>
+          <t>1892.14</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1709.14</t>
+          <t>1881.11</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1792.56</t>
+          <t>1795.87</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1778.31</t>
+          <t>1788.04</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3213.80</t>
+          <t>3214.29</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2849.20</t>
+          <t>3244.28</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2465.21</t>
+          <t>2430.73</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2203.00</t>
+          <t>2382.87</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1700.62</t>
+          <t>1889.27</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1691.65</t>
+          <t>1877.38</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1805.09</t>
+          <t>1790.54</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1794.91</t>
+          <t>1779.60</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3189.06</t>
+          <t>3211.93</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2857.57</t>
+          <t>3257.49</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2464.82</t>
+          <t>2432.03</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2189.58</t>
+          <t>2384.94</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1695.36</t>
+          <t>1889.50</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1686.13</t>
+          <t>1878.16</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1792.42</t>
+          <t>1780.74</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1784.69</t>
+          <t>1770.01</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3161.27</t>
+          <t>3212.05</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2848.49</t>
+          <t>3264.18</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2469.77</t>
+          <t>2449.46</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2159.38</t>
+          <t>2387.03</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1652.52</t>
+          <t>1872.63</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1649.72</t>
+          <t>1861.07</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1797.90</t>
+          <t>1768.62</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1787.43</t>
+          <t>1759.15</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3100.03</t>
+          <t>3216.08</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2829.21</t>
+          <t>3272.37</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2481.32</t>
+          <t>2453.91</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2160.54</t>
+          <t>2420.17</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1648.59</t>
+          <t>1876.44</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1647.71</t>
+          <t>1865.16</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1790.39</t>
+          <t>1775.48</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1779.82</t>
+          <t>1761.78</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3105.54</t>
+          <t>3222.83</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2825.43</t>
+          <t>3276.88</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2443.10</t>
+          <t>2458.62</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2166.19</t>
+          <t>2427.64</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1639.48</t>
+          <t>1881.61</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1644.38</t>
+          <t>1870.22</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1796.34</t>
+          <t>1785.41</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1785.76</t>
+          <t>1768.09</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3116.76</t>
+          <t>3235.35</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2831.51</t>
+          <t>3287.08</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2451.87</t>
+          <t>2469.46</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2174.69</t>
+          <t>2441.43</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1646.90</t>
+          <t>1894.64</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1645.53</t>
+          <t>1882.02</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1807.73</t>
+          <t>1798.92</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1797.14</t>
+          <t>1783.02</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3303.44</t>
+          <t>3334.79</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>2912.22</t>
+          <t>3402.70</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2555.98</t>
+          <t>2578.77</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2274.57</t>
+          <t>2547.89</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1727.72</t>
+          <t>2000.79</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1720.04</t>
+          <t>1991.91</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1916.88</t>
+          <t>1894.41</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1907.07</t>
+          <t>1882.01</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4201.78</t>
+          <t>4141.56</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3697.21</t>
+          <t>4006.55</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3409.64</t>
+          <t>3358.31</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2905.01</t>
+          <t>3113.54</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2204.70</t>
+          <t>2432.41</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2195.61</t>
+          <t>2405.78</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2593.70</t>
+          <t>2551.32</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2597.13</t>
+          <t>2556.61</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_AlbuquerqueTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_AlbuquerqueTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2363.08</t>
+          <t>2511.87</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2374.52</t>
+          <t>2037.30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>720.04</t>
+          <t>1046.11</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1978.10</t>
+          <t>1590.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1571.78</t>
+          <t>1236.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1564.05</t>
+          <t>1231.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1551.15</t>
+          <t>1582.36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1574.85</t>
+          <t>1548.01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3202.91</t>
+          <t>3302.03</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3082.41</t>
+          <t>2803.91</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2423.86</t>
+          <t>2550.71</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2318.95</t>
+          <t>1963.10</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1836.74</t>
+          <t>1597.42</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1828.66</t>
+          <t>1591.57</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1792.15</t>
+          <t>1801.41</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1788.04</t>
+          <t>1791.28</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3148.66</t>
+          <t>3286.49</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3081.76</t>
+          <t>2695.77</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2404.49</t>
+          <t>2536.81</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2324.10</t>
+          <t>1960.04</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1836.79</t>
+          <t>1588.30</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1827.88</t>
+          <t>1578.92</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1786.69</t>
+          <t>1806.49</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1778.70</t>
+          <t>1791.37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3154.69</t>
+          <t>3283.74</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3087.55</t>
+          <t>2700.83</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2353.28</t>
+          <t>2521.02</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2326.70</t>
+          <t>2041.53</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1841.60</t>
+          <t>1580.36</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1832.62</t>
+          <t>1570.76</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1775.17</t>
+          <t>1834.50</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1768.09</t>
+          <t>1820.60</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>3016.70</t>
+          <t>3281.51</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>3092.07</t>
+          <t>2705.83</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2353.29</t>
+          <t>2518.54</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>2329.64</t>
+          <t>2011.38</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1846.02</t>
+          <t>1578.01</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1836.24</t>
+          <t>1565.50</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1745.27</t>
+          <t>1825.61</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1739.61</t>
+          <t>1817.83</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3018.10</t>
+          <t>3278.76</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>3095.84</t>
+          <t>2709.77</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2355.05</t>
+          <t>2513.99</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>2364.81</t>
+          <t>2007.47</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1849.51</t>
+          <t>1572.04</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1838.58</t>
+          <t>1558.30</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1767.81</t>
+          <t>1817.76</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1741.13</t>
+          <t>1811.66</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>3044.93</t>
+          <t>3278.22</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>3087.88</t>
+          <t>2725.56</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2360.34</t>
+          <t>2515.30</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2370.02</t>
+          <t>2004.99</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1855.62</t>
+          <t>1570.84</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1844.40</t>
+          <t>1556.85</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1766.22</t>
+          <t>1816.45</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1761.46</t>
+          <t>1809.96</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>3051.11</t>
+          <t>3283.85</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>3099.36</t>
+          <t>2739.47</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2367.97</t>
+          <t>2517.17</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>2379.02</t>
+          <t>2008.08</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1865.43</t>
+          <t>1576.23</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1857.93</t>
+          <t>1561.99</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1775.51</t>
+          <t>1818.74</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1765.94</t>
+          <t>1813.20</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3132.47</t>
+          <t>3364.94</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>3209.82</t>
+          <t>2831.43</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2498.26</t>
+          <t>2548.05</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>2480.33</t>
+          <t>2070.95</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1953.73</t>
+          <t>1649.87</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1948.12</t>
+          <t>1634.78</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1856.49</t>
+          <t>1897.21</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1848.68</t>
+          <t>1887.66</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3954.73</t>
+          <t>4133.58</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>3810.37</t>
+          <t>3464.32</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3271.31</t>
+          <t>3281.60</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>2898.32</t>
+          <t>2544.21</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>2357.89</t>
+          <t>1983.20</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>2333.81</t>
+          <t>1956.92</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2473.49</t>
+          <t>2560.29</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2472.51</t>
+          <t>2566.45</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2441.74</t>
+          <t>2416.88</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2468.67</t>
+          <t>2083.68</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>737.04</t>
+          <t>831.80</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2005.08</t>
+          <t>1842.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1592.89</t>
+          <t>1478.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1581.96</t>
+          <t>1467.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1518.27</t>
+          <t>1556.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1511.63</t>
+          <t>1543.22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3185.89</t>
+          <t>3232.96</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3233.47</t>
+          <t>2765.46</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2429.08</t>
+          <t>2445.96</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2357.09</t>
+          <t>2204.60</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1844.38</t>
+          <t>1708.62</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1831.73</t>
+          <t>1697.45</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1740.98</t>
+          <t>1785.15</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1746.95</t>
+          <t>1777.00</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3198.09</t>
+          <t>3234.64</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3244.28</t>
+          <t>2922.74</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2416.61</t>
+          <t>2443.90</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2356.39</t>
+          <t>2197.27</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1870.25</t>
+          <t>1701.32</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1859.54</t>
+          <t>1686.34</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1749.94</t>
+          <t>1780.09</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1755.40</t>
+          <t>1769.91</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>3206.32</t>
+          <t>3239.24</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>3257.49</t>
+          <t>2917.07</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2417.00</t>
+          <t>2448.50</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2356.60</t>
+          <t>2190.73</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1840.90</t>
+          <t>1698.66</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1862.92</t>
+          <t>1684.63</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1747.29</t>
+          <t>1792.99</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1749.15</t>
+          <t>1770.63</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3212.05</t>
+          <t>3248.36</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3264.18</t>
+          <t>2911.28</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2419.22</t>
+          <t>2432.95</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2362.20</t>
+          <t>2157.85</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1843.86</t>
+          <t>1694.06</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1831.40</t>
+          <t>1681.94</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1767.36</t>
+          <t>1795.76</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1744.80</t>
+          <t>1783.42</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>3216.08</t>
+          <t>3249.13</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>3272.37</t>
+          <t>2910.27</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2420.27</t>
+          <t>2446.67</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2395.96</t>
+          <t>2158.22</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1841.30</t>
+          <t>1674.74</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1828.94</t>
+          <t>1678.38</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1775.48</t>
+          <t>1790.65</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1760.44</t>
+          <t>1777.16</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>3222.83</t>
+          <t>3248.87</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>3276.88</t>
+          <t>2910.69</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2423.96</t>
+          <t>2458.33</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2406.67</t>
+          <t>2158.54</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>1845.10</t>
+          <t>1676.02</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>1832.78</t>
+          <t>1666.94</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1785.41</t>
+          <t>1777.31</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1767.16</t>
+          <t>1766.33</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>3235.35</t>
+          <t>3252.35</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>3287.08</t>
+          <t>2917.56</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2433.91</t>
+          <t>2474.17</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>2424.16</t>
+          <t>2164.30</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>1855.86</t>
+          <t>1683.67</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>1843.72</t>
+          <t>1674.41</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1798.92</t>
+          <t>1787.80</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1783.02</t>
+          <t>1776.70</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>3334.79</t>
+          <t>3346.44</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>3402.70</t>
+          <t>3007.72</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>2569.23</t>
+          <t>2519.47</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>2536.49</t>
+          <t>2240.16</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>1948.69</t>
+          <t>1763.15</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>1934.26</t>
+          <t>1753.30</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1894.41</t>
+          <t>1865.03</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1882.01</t>
+          <t>1853.86</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>4141.56</t>
+          <t>4222.34</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>3997.30</t>
+          <t>3247.07</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>3351.47</t>
+          <t>3335.63</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>3041.76</t>
+          <t>2492.47</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2416.70</t>
+          <t>2089.57</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2384.81</t>
+          <t>2064.84</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2551.32</t>
+          <t>2589.86</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2545.53</t>
+          <t>2595.85</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2366.76</t>
+          <t>2384.50</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2468.46</t>
+          <t>2474.57</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>642.74</t>
+          <t>627.54</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024.35</t>
+          <t>2026.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1597.51</t>
+          <t>1545.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1586.88</t>
+          <t>1576.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1529.78</t>
+          <t>1476.19</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1534.61</t>
+          <t>1479.36</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3122.95</t>
+          <t>3181.86</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3181.40</t>
+          <t>3168.19</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2400.37</t>
+          <t>2475.65</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2366.63</t>
+          <t>2409.99</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1874.57</t>
+          <t>1828.43</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1860.28</t>
+          <t>1819.58</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1773.96</t>
+          <t>1738.73</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1766.09</t>
+          <t>1724.23</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3119.79</t>
+          <t>3173.74</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3152.16</t>
+          <t>3176.49</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2383.16</t>
+          <t>2468.33</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2356.83</t>
+          <t>2412.59</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1864.70</t>
+          <t>1840.17</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1852.25</t>
+          <t>1827.78</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1766.50</t>
+          <t>1738.40</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1756.98</t>
+          <t>1722.35</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>3114.66</t>
+          <t>3165.47</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>3149.42</t>
+          <t>3195.05</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2381.24</t>
+          <t>2469.36</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2354.80</t>
+          <t>2409.20</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1863.08</t>
+          <t>1851.12</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1858.40</t>
+          <t>1837.86</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1762.44</t>
+          <t>1747.33</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1751.58</t>
+          <t>1735.33</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>3107.53</t>
+          <t>3162.16</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>3148.59</t>
+          <t>3171.67</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2381.86</t>
+          <t>2466.59</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2349.94</t>
+          <t>2413.07</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1861.13</t>
+          <t>1857.45</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1849.24</t>
+          <t>1844.80</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1723.99</t>
+          <t>1726.25</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1701.51</t>
+          <t>1738.90</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>3104.59</t>
+          <t>3128.44</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>3148.00</t>
+          <t>3170.24</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2379.75</t>
+          <t>2462.69</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>2381.89</t>
+          <t>2426.07</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1862.99</t>
+          <t>1881.94</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1851.08</t>
+          <t>1874.83</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1729.81</t>
+          <t>1752.22</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1718.59</t>
+          <t>1742.54</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>3104.83</t>
+          <t>3118.67</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>3147.54</t>
+          <t>3154.30</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2380.49</t>
+          <t>2461.27</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2385.55</t>
+          <t>2423.07</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1867.15</t>
+          <t>1884.41</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1855.11</t>
+          <t>1873.44</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1754.46</t>
+          <t>1755.21</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1726.03</t>
+          <t>1745.00</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>3122.12</t>
+          <t>3116.79</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>3154.73</t>
+          <t>3163.40</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2392.71</t>
+          <t>2461.86</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>2395.77</t>
+          <t>2418.41</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1878.66</t>
+          <t>1893.89</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1866.74</t>
+          <t>1882.80</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1768.12</t>
+          <t>1764.72</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1740.05</t>
+          <t>1754.56</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>3237.32</t>
+          <t>3206.36</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>3257.34</t>
+          <t>3255.95</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2515.27</t>
+          <t>2448.41</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>2517.43</t>
+          <t>2490.76</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1977.89</t>
+          <t>1982.29</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1966.22</t>
+          <t>1969.88</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1858.01</t>
+          <t>1841.81</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1849.22</t>
+          <t>1831.52</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>4090.70</t>
+          <t>4140.84</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>4006.55</t>
+          <t>3948.68</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>3296.68</t>
+          <t>3252.56</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>3092.52</t>
+          <t>2950.92</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2395.84</t>
+          <t>2353.37</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2362.61</t>
+          <t>2324.55</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2548.56</t>
+          <t>2498.86</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2538.61</t>
+          <t>2509.26</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2309.94</t>
+          <t>2326.39</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2404.00</t>
+          <t>2441.35</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>603.86</t>
+          <t>393.31</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2001.22</t>
+          <t>1962.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1602.96</t>
+          <t>1547.45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1593.57</t>
+          <t>1537.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1476.47</t>
+          <t>1463.61</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1473.83</t>
+          <t>1471.43</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2932.45</t>
+          <t>3145.49</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3076.74</t>
+          <t>3243.69</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2368.65</t>
+          <t>2419.63</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2354.84</t>
+          <t>2385.87</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1823.28</t>
+          <t>1804.70</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1863.12</t>
+          <t>1796.14</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1673.06</t>
+          <t>1685.29</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1679.76</t>
+          <t>1679.07</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2935.32</t>
+          <t>3151.99</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>3064.62</t>
+          <t>3248.16</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2333.32</t>
+          <t>2394.67</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2351.84</t>
+          <t>2398.26</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1869.46</t>
+          <t>1824.41</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1864.07</t>
+          <t>1813.10</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1668.04</t>
+          <t>1678.03</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1677.11</t>
+          <t>1669.49</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2942.64</t>
+          <t>3161.61</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>3065.01</t>
+          <t>3257.55</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2323.06</t>
+          <t>2395.38</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2351.99</t>
+          <t>2403.77</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1823.40</t>
+          <t>1826.94</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1864.76</t>
+          <t>1815.66</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1674.27</t>
+          <t>1673.45</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1664.61</t>
+          <t>1669.55</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2964.78</t>
+          <t>3165.39</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3066.88</t>
+          <t>3265.49</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2321.27</t>
+          <t>2398.31</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2352.44</t>
+          <t>2335.32</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1834.77</t>
+          <t>1830.44</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1822.54</t>
+          <t>1818.38</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1671.17</t>
+          <t>1720.30</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1660.52</t>
+          <t>1710.15</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2982.06</t>
+          <t>3172.20</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>3073.11</t>
+          <t>3271.95</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2315.48</t>
+          <t>2402.88</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2384.59</t>
+          <t>2345.54</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1844.42</t>
+          <t>1833.91</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1832.15</t>
+          <t>1821.84</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1676.52</t>
+          <t>1722.37</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1665.87</t>
+          <t>1712.06</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2986.60</t>
+          <t>3178.94</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>3079.46</t>
+          <t>3278.00</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2319.51</t>
+          <t>2329.52</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2405.45</t>
+          <t>2350.28</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1853.93</t>
+          <t>1837.69</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1841.55</t>
+          <t>1825.65</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1682.11</t>
+          <t>1726.21</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1671.44</t>
+          <t>1706.01</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2993.45</t>
+          <t>3191.29</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>3085.39</t>
+          <t>3288.85</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2346.61</t>
+          <t>2337.77</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>2423.89</t>
+          <t>2359.53</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1874.16</t>
+          <t>1847.08</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1861.77</t>
+          <t>1835.08</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1693.35</t>
+          <t>1727.47</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1682.68</t>
+          <t>1715.68</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>3088.44</t>
+          <t>3291.97</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>3175.62</t>
+          <t>3381.89</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2462.93</t>
+          <t>2385.73</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2514.93</t>
+          <t>2428.22</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1964.34</t>
+          <t>1924.03</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1952.87</t>
+          <t>1911.77</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1771.52</t>
+          <t>1804.91</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1760.74</t>
+          <t>1791.80</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3866.66</t>
+          <t>3959.92</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3892.98</t>
+          <t>3990.47</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>3181.54</t>
+          <t>3158.77</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>3087.74</t>
+          <t>2916.42</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2396.01</t>
+          <t>2263.99</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>2375.28</t>
+          <t>2230.98</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2401.13</t>
+          <t>2386.46</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2403.74</t>
+          <t>2320.24</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2263.90</t>
+          <t>2024.01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2417.63</t>
+          <t>2151.66</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>801.65</t>
+          <t>376.64</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2005.13</t>
+          <t>1723.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1588.22</t>
+          <t>1325.97</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1578.82</t>
+          <t>1318.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1420.92</t>
+          <t>1191.57</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1414.71</t>
+          <t>1195.27</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2880.89</t>
+          <t>2669.82</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3024.97</t>
+          <t>2792.82</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2300.21</t>
+          <t>2109.26</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2326.43</t>
+          <t>2104.61</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1811.68</t>
+          <t>1559.95</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1799.68</t>
+          <t>1555.75</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1627.59</t>
+          <t>1411.76</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1617.17</t>
+          <t>1409.41</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2887.61</t>
+          <t>2667.21</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>3021.16</t>
+          <t>2789.86</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2281.75</t>
+          <t>2074.42</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2325.05</t>
+          <t>2108.68</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1805.90</t>
+          <t>1563.17</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1793.98</t>
+          <t>1554.29</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1625.38</t>
+          <t>1412.93</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1613.84</t>
+          <t>1406.91</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2897.69</t>
+          <t>2674.14</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>3029.27</t>
+          <t>2795.36</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2281.19</t>
+          <t>2073.22</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2330.31</t>
+          <t>2114.28</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1811.26</t>
+          <t>1569.52</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1799.40</t>
+          <t>1560.88</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1632.23</t>
+          <t>1420.43</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1620.48</t>
+          <t>1413.16</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2907.72</t>
+          <t>2680.59</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>3037.60</t>
+          <t>2800.50</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2284.10</t>
+          <t>2083.22</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2336.53</t>
+          <t>2118.33</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1817.17</t>
+          <t>1575.26</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1805.36</t>
+          <t>1566.55</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1639.17</t>
+          <t>1426.97</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1627.42</t>
+          <t>1419.26</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2916.69</t>
+          <t>2686.10</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>3045.13</t>
+          <t>2804.93</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2288.21</t>
+          <t>2088.07</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2370.57</t>
+          <t>2127.39</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1822.61</t>
+          <t>1580.02</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1810.83</t>
+          <t>1571.30</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1645.43</t>
+          <t>1432.34</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1633.70</t>
+          <t>1424.61</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2925.53</t>
+          <t>2691.75</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>3052.75</t>
+          <t>2809.63</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2296.24</t>
+          <t>2093.23</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2382.05</t>
+          <t>2131.56</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1828.43</t>
+          <t>1585.08</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1816.69</t>
+          <t>1576.28</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1651.93</t>
+          <t>1437.88</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1640.24</t>
+          <t>1430.02</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2955.04</t>
+          <t>2703.15</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>3107.37</t>
+          <t>2820.47</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2334.31</t>
+          <t>2103.68</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2431.88</t>
+          <t>2141.12</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1840.51</t>
+          <t>1596.29</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1828.82</t>
+          <t>1587.33</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1664.44</t>
+          <t>1448.94</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1652.80</t>
+          <t>1440.93</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>3056.48</t>
+          <t>2803.04</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>3215.22</t>
+          <t>2922.91</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2450.56</t>
+          <t>2155.53</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2543.98</t>
+          <t>2226.41</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1924.16</t>
+          <t>1683.72</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1912.44</t>
+          <t>1674.75</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1746.77</t>
+          <t>1539.79</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1735.10</t>
+          <t>1524.60</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3765.10</t>
+          <t>3422.30</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3879.70</t>
+          <t>3516.49</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>3182.77</t>
+          <t>2704.16</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>3113.54</t>
+          <t>2687.93</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2385.71</t>
+          <t>2100.64</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2361.93</t>
+          <t>2074.44</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2345.30</t>
+          <t>2078.32</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2347.64</t>
+          <t>2080.52</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2201.16</t>
+          <t>1917.95</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2339.76</t>
+          <t>2056.74</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>965.70</t>
+          <t>643.19</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1932.95</t>
+          <t>1656.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1543.27</t>
+          <t>1275.59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1534.59</t>
+          <t>1268.47</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1377.28</t>
+          <t>1137.15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1373.43</t>
+          <t>1150.47</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2744.55</t>
+          <t>2486.29</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2892.44</t>
+          <t>2622.98</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2202.92</t>
+          <t>2016.97</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2240.37</t>
+          <t>2001.56</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1764.76</t>
+          <t>1479.13</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1753.10</t>
+          <t>1475.10</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1579.37</t>
+          <t>1332.54</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1569.59</t>
+          <t>1336.23</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2746.32</t>
+          <t>2449.40</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2883.44</t>
+          <t>2584.16</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2182.75</t>
+          <t>1939.95</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2232.92</t>
+          <t>1977.75</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1757.01</t>
+          <t>1460.16</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1745.43</t>
+          <t>1451.68</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1575.28</t>
+          <t>1319.01</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1564.19</t>
+          <t>1312.83</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2753.75</t>
+          <t>2445.84</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2888.78</t>
+          <t>2578.48</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2183.41</t>
+          <t>1935.98</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2234.95</t>
+          <t>1980.61</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1761.29</t>
+          <t>1460.09</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1749.78</t>
+          <t>1451.92</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1581.12</t>
+          <t>1321.14</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1569.74</t>
+          <t>1313.69</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2761.95</t>
+          <t>2444.51</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2895.21</t>
+          <t>2574.92</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>2188.42</t>
+          <t>1939.47</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>2238.52</t>
+          <t>1984.11</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1766.44</t>
+          <t>1461.16</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1754.99</t>
+          <t>1459.71</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1587.36</t>
+          <t>1323.83</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1575.97</t>
+          <t>1316.10</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2769.49</t>
+          <t>2443.16</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2901.23</t>
+          <t>2572.41</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>2193.67</t>
+          <t>1943.93</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2274.60</t>
+          <t>1993.43</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1771.26</t>
+          <t>1462.28</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1759.85</t>
+          <t>1461.12</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1593.07</t>
+          <t>1326.26</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1581.71</t>
+          <t>1318.49</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2777.13</t>
+          <t>2417.60</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2907.59</t>
+          <t>2544.72</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>2199.38</t>
+          <t>1948.94</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2283.08</t>
+          <t>1997.34</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1776.55</t>
+          <t>1460.49</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1765.19</t>
+          <t>1452.26</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1599.08</t>
+          <t>1325.44</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1587.77</t>
+          <t>1317.57</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2790.33</t>
+          <t>2423.04</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2919.89</t>
+          <t>2550.05</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>2210.27</t>
+          <t>1959.07</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>2297.58</t>
+          <t>2006.38</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1788.09</t>
+          <t>1468.79</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1776.79</t>
+          <t>1460.45</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1611.05</t>
+          <t>1333.85</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1599.79</t>
+          <t>1325.87</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2879.70</t>
+          <t>2514.59</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>3012.81</t>
+          <t>2642.64</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>2339.41</t>
+          <t>2011.52</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2389.72</t>
+          <t>2087.20</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1870.58</t>
+          <t>1544.66</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1859.24</t>
+          <t>1537.22</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1692.07</t>
+          <t>1407.66</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1680.75</t>
+          <t>1399.46</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>3454.95</t>
+          <t>3072.42</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3570.72</t>
+          <t>3180.39</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2817.31</t>
+          <t>2548.44</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2800.85</t>
+          <t>2557.21</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>2227.87</t>
+          <t>1954.45</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>2201.58</t>
+          <t>1931.53</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>2221.51</t>
+          <t>1933.88</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>2220.87</t>
+          <t>1937.54</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2111.34</t>
+          <t>1703.07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2246.14</t>
+          <t>1813.90</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1264.40</t>
+          <t>676.53</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1864.52</t>
+          <t>1474.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1483.99</t>
+          <t>1102.33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1475.85</t>
+          <t>1097.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1327.09</t>
+          <t>1002.00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1326.09</t>
+          <t>1016.47</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2632.29</t>
+          <t>2199.22</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2772.36</t>
+          <t>2303.76</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2173.14</t>
+          <t>1833.06</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2195.83</t>
+          <t>1813.82</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1693.96</t>
+          <t>1307.31</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1682.94</t>
+          <t>1306.46</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1518.54</t>
+          <t>1189.36</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1510.81</t>
+          <t>1192.85</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2632.73</t>
+          <t>2177.26</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2763.40</t>
+          <t>2281.30</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2139.59</t>
+          <t>1784.00</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2193.87</t>
+          <t>1802.19</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1686.16</t>
+          <t>1300.15</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1675.21</t>
+          <t>1293.65</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1514.57</t>
+          <t>1178.64</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1504.38</t>
+          <t>1176.70</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2640.34</t>
+          <t>2174.00</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2768.37</t>
+          <t>2276.99</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2145.28</t>
+          <t>1775.38</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2198.24</t>
+          <t>1801.06</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1690.20</t>
+          <t>1300.85</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1679.32</t>
+          <t>1294.46</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1520.47</t>
+          <t>1180.19</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1509.83</t>
+          <t>1176.14</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2648.56</t>
+          <t>2173.43</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2774.35</t>
+          <t>2275.51</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2151.32</t>
+          <t>1775.81</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2201.43</t>
+          <t>1802.01</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1695.13</t>
+          <t>1303.23</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1684.31</t>
+          <t>1296.90</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1526.79</t>
+          <t>1183.29</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1516.11</t>
+          <t>1178.54</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2656.03</t>
+          <t>2173.44</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2779.92</t>
+          <t>2274.77</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>2156.72</t>
+          <t>1777.97</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2235.64</t>
+          <t>1809.34</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1699.76</t>
+          <t>1305.67</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1688.97</t>
+          <t>1299.36</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1532.56</t>
+          <t>1186.36</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1521.90</t>
+          <t>1181.37</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2663.49</t>
+          <t>2174.18</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2785.79</t>
+          <t>2274.84</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>2161.99</t>
+          <t>1780.90</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2243.66</t>
+          <t>1811.49</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1704.83</t>
+          <t>1308.56</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1694.08</t>
+          <t>1302.26</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1538.58</t>
+          <t>1189.64</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1527.96</t>
+          <t>1184.50</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2676.22</t>
+          <t>2179.86</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2797.30</t>
+          <t>2280.10</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>2172.63</t>
+          <t>1788.48</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2257.76</t>
+          <t>1818.17</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1715.93</t>
+          <t>1316.57</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1705.25</t>
+          <t>1310.26</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1550.34</t>
+          <t>1197.36</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1539.75</t>
+          <t>1192.02</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2763.54</t>
+          <t>2260.68</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2885.61</t>
+          <t>2362.35</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>2297.27</t>
+          <t>1835.41</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2347.54</t>
+          <t>1891.30</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1794.86</t>
+          <t>1392.48</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1784.25</t>
+          <t>1386.26</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1628.16</t>
+          <t>1269.30</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1617.50</t>
+          <t>1263.83</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>3321.56</t>
+          <t>2817.62</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3425.53</t>
+          <t>2899.71</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2731.96</t>
+          <t>2283.45</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2788.79</t>
+          <t>2303.40</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>2142.20</t>
+          <t>1771.85</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>2117.97</t>
+          <t>1751.86</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>2137.03</t>
+          <t>1773.32</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>2136.84</t>
+          <t>1779.79</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2100.36</t>
+          <t>1747.29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2225.24</t>
+          <t>1842.43</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1483.87</t>
+          <t>921.77</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1848.42</t>
+          <t>1482.91</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1434.91</t>
+          <t>1121.58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1428.59</t>
+          <t>1124.96</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1335.98</t>
+          <t>1038.04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1342.21</t>
+          <t>1053.05</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2459.94</t>
+          <t>2216.52</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2571.59</t>
+          <t>2317.16</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2194.33</t>
+          <t>1855.74</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2188.34</t>
+          <t>1790.13</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1639.89</t>
+          <t>1300.91</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1630.84</t>
+          <t>1297.77</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1520.26</t>
+          <t>1224.10</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1520.46</t>
+          <t>1222.80</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2455.13</t>
+          <t>2193.32</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2566.11</t>
+          <t>2269.82</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2158.06</t>
+          <t>1756.55</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2191.88</t>
+          <t>1750.85</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1627.93</t>
+          <t>1275.92</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1618.30</t>
+          <t>1269.38</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1501.52</t>
+          <t>1215.60</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1503.79</t>
+          <t>1210.34</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2470.47</t>
+          <t>2190.17</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2575.62</t>
+          <t>2265.70</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2157.88</t>
+          <t>1737.54</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2198.57</t>
+          <t>1746.61</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1630.74</t>
+          <t>1274.54</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1621.90</t>
+          <t>1266.79</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1506.50</t>
+          <t>1216.68</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1498.25</t>
+          <t>1210.73</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2486.53</t>
+          <t>2189.56</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2584.00</t>
+          <t>2264.60</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2166.34</t>
+          <t>1735.36</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>2206.34</t>
+          <t>1744.68</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1635.87</t>
+          <t>1275.13</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1628.91</t>
+          <t>1267.45</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1512.73</t>
+          <t>1209.93</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1503.97</t>
+          <t>1211.69</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2501.21</t>
+          <t>2189.52</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2590.58</t>
+          <t>2264.23</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2174.21</t>
+          <t>1735.12</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>2242.18</t>
+          <t>1749.44</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1641.96</t>
+          <t>1276.02</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1635.51</t>
+          <t>1268.36</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1518.81</t>
+          <t>1206.07</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1509.96</t>
+          <t>1205.85</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2515.39</t>
+          <t>2190.39</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2598.36</t>
+          <t>2264.78</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2182.33</t>
+          <t>1736.08</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2252.92</t>
+          <t>1751.18</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1651.71</t>
+          <t>1277.57</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1643.28</t>
+          <t>1269.91</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1525.55</t>
+          <t>1206.72</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1516.73</t>
+          <t>1206.38</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2535.19</t>
+          <t>2196.68</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2613.38</t>
+          <t>2271.12</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2195.27</t>
+          <t>1742.11</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>2270.27</t>
+          <t>1758.32</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1668.78</t>
+          <t>1284.49</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1659.01</t>
+          <t>1276.80</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1539.80</t>
+          <t>1210.29</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1530.52</t>
+          <t>1209.87</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2644.07</t>
+          <t>2282.76</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2716.54</t>
+          <t>2358.23</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2318.80</t>
+          <t>1789.54</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2365.69</t>
+          <t>1829.78</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1759.03</t>
+          <t>1358.25</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1750.15</t>
+          <t>1350.55</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1622.17</t>
+          <t>1273.95</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1614.32</t>
+          <t>1270.35</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>3277.89</t>
+          <t>2897.84</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>3346.09</t>
+          <t>2917.53</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2709.06</t>
+          <t>2293.44</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2796.68</t>
+          <t>2298.49</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>2126.32</t>
+          <t>1742.09</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>2104.98</t>
+          <t>1720.89</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2171.71</t>
+          <t>1770.06</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2176.14</t>
+          <t>1776.24</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2324.32</t>
+          <t>1811.08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2444.27</t>
+          <t>1844.73</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1516.66</t>
+          <t>1103.86</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2004.31</t>
+          <t>1479.53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1589.29</t>
+          <t>1143.52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1581.31</t>
+          <t>1148.65</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1448.14</t>
+          <t>1117.95</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1454.32</t>
+          <t>1135.64</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2888.61</t>
+          <t>2271.34</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3020.50</t>
+          <t>2318.78</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2343.54</t>
+          <t>1960.02</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2317.11</t>
+          <t>1773.65</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1813.39</t>
+          <t>1298.00</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1802.14</t>
+          <t>1306.76</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1638.94</t>
+          <t>1297.08</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1637.20</t>
+          <t>1302.85</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2888.68</t>
+          <t>2242.03</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>3008.84</t>
+          <t>2251.82</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2313.54</t>
+          <t>1814.04</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2310.62</t>
+          <t>1757.02</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1805.75</t>
+          <t>1265.84</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1794.47</t>
+          <t>1281.35</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1630.37</t>
+          <t>1279.65</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1621.21</t>
+          <t>1280.39</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2897.89</t>
+          <t>2236.85</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>3016.32</t>
+          <t>2242.89</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2311.35</t>
+          <t>1802.05</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2314.15</t>
+          <t>1753.45</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1811.78</t>
+          <t>1265.13</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1800.54</t>
+          <t>1257.65</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1636.11</t>
+          <t>1278.08</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1626.01</t>
+          <t>1276.56</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2902.86</t>
+          <t>2236.38</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>3024.37</t>
+          <t>2241.89</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2311.54</t>
+          <t>1800.79</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2319.13</t>
+          <t>1752.90</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1818.76</t>
+          <t>1266.56</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1807.56</t>
+          <t>1259.03</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1644.97</t>
+          <t>1273.82</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1634.07</t>
+          <t>1277.38</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2911.67</t>
+          <t>2236.76</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>3031.73</t>
+          <t>2241.83</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2317.56</t>
+          <t>1801.74</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2353.19</t>
+          <t>1758.98</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1825.27</t>
+          <t>1268.27</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1814.08</t>
+          <t>1260.70</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1652.35</t>
+          <t>1272.50</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1641.40</t>
+          <t>1280.77</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2920.36</t>
+          <t>2237.63</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>3039.19</t>
+          <t>2242.56</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2324.00</t>
+          <t>1803.73</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2362.46</t>
+          <t>1760.38</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1832.17</t>
+          <t>1270.60</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1821.03</t>
+          <t>1262.99</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1660.11</t>
+          <t>1268.99</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1649.19</t>
+          <t>1281.52</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2934.28</t>
+          <t>2242.60</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>3052.33</t>
+          <t>2248.43</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2335.69</t>
+          <t>1810.54</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>2378.93</t>
+          <t>1766.61</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1845.75</t>
+          <t>1278.32</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1834.69</t>
+          <t>1270.68</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1675.19</t>
+          <t>1267.14</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1664.13</t>
+          <t>1282.47</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>3026.69</t>
+          <t>2328.52</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>3149.02</t>
+          <t>2331.72</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2467.84</t>
+          <t>1859.13</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2478.17</t>
+          <t>1839.55</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1933.49</t>
+          <t>1353.31</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1922.39</t>
+          <t>1345.76</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1770.00</t>
+          <t>1305.60</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1758.73</t>
+          <t>1320.95</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>3639.03</t>
+          <t>2969.09</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>3769.26</t>
+          <t>2866.75</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2997.33</t>
+          <t>2329.57</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2903.97</t>
+          <t>2316.01</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>2329.60</t>
+          <t>1736.98</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>2300.51</t>
+          <t>1715.19</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2342.55</t>
+          <t>1842.41</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2343.15</t>
+          <t>1853.96</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2385.12</t>
+          <t>2152.09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2457.32</t>
+          <t>2243.17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1733.70</t>
+          <t>1461.29</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2034.68</t>
+          <t>1771.79</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1644.25</t>
+          <t>1337.85</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1635.34</t>
+          <t>1330.92</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1547.15</t>
+          <t>1348.88</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1555.04</t>
+          <t>1360.32</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3002.54</t>
+          <t>2789.72</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3103.54</t>
+          <t>2821.93</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2454.50</t>
+          <t>2219.63</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2356.31</t>
+          <t>2115.11</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1847.37</t>
+          <t>1548.02</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1836.17</t>
+          <t>1545.39</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1761.74</t>
+          <t>1524.50</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1758.62</t>
+          <t>1539.40</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2988.92</t>
+          <t>2756.38</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3072.83</t>
+          <t>2797.88</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2416.13</t>
+          <t>2144.95</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2353.08</t>
+          <t>2068.07</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1833.79</t>
+          <t>1533.20</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1821.72</t>
+          <t>1524.77</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1747.66</t>
+          <t>1487.50</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1740.71</t>
+          <t>1502.47</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2996.02</t>
+          <t>2746.19</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3074.55</t>
+          <t>2792.01</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2411.15</t>
+          <t>2106.24</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2352.36</t>
+          <t>2065.19</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1837.84</t>
+          <t>1539.06</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1825.85</t>
+          <t>1526.27</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1739.61</t>
+          <t>1482.58</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1736.04</t>
+          <t>1478.22</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3006.26</t>
+          <t>2741.20</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3080.59</t>
+          <t>2787.88</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2424.26</t>
+          <t>2097.68</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2354.36</t>
+          <t>2063.07</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1842.76</t>
+          <t>1540.74</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1830.81</t>
+          <t>1530.84</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1733.40</t>
+          <t>1475.91</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1732.47</t>
+          <t>1474.60</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3013.68</t>
+          <t>2735.05</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3086.62</t>
+          <t>2785.95</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2432.62</t>
+          <t>2093.95</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2386.51</t>
+          <t>2067.83</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1844.94</t>
+          <t>1545.48</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1833.05</t>
+          <t>1535.86</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1745.56</t>
+          <t>1469.27</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1721.21</t>
+          <t>1465.25</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3021.67</t>
+          <t>2734.07</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3093.19</t>
+          <t>2785.76</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2437.14</t>
+          <t>2092.62</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2395.68</t>
+          <t>2069.11</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1849.98</t>
+          <t>1549.31</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1838.13</t>
+          <t>1538.72</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1748.68</t>
+          <t>1484.88</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1732.77</t>
+          <t>1462.73</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3035.80</t>
+          <t>2739.53</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3107.17</t>
+          <t>2792.61</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2446.04</t>
+          <t>2097.23</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2408.87</t>
+          <t>2076.88</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1861.40</t>
+          <t>1558.48</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1849.63</t>
+          <t>1548.46</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1758.93</t>
+          <t>1482.60</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1752.09</t>
+          <t>1476.78</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3133.83</t>
+          <t>2833.08</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3210.24</t>
+          <t>2894.34</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2573.88</t>
+          <t>2145.33</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2511.88</t>
+          <t>2158.51</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1950.27</t>
+          <t>1644.77</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1938.48</t>
+          <t>1634.57</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1837.05</t>
+          <t>1564.54</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1828.06</t>
+          <t>1557.41</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3832.79</t>
+          <t>3532.83</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3833.55</t>
+          <t>3601.80</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3244.25</t>
+          <t>2784.64</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3053.05</t>
+          <t>2662.35</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2371.27</t>
+          <t>2081.88</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2348.79</t>
+          <t>2053.19</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2451.99</t>
+          <t>2130.99</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2454.90</t>
+          <t>2144.03</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2409.81</t>
+          <t>2352.86</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2504.41</t>
+          <t>2307.56</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1382.06</t>
+          <t>1082.06</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2084.48</t>
+          <t>1805.76</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1653.76</t>
+          <t>1391.97</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1679.22</t>
+          <t>1383.60</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1571.53</t>
+          <t>1453.06</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1561.01</t>
+          <t>1461.33</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3092.29</t>
+          <t>3032.49</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3238.78</t>
+          <t>3004.51</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2440.46</t>
+          <t>2387.99</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2388.80</t>
+          <t>2176.32</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1878.98</t>
+          <t>1625.78</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1868.51</t>
+          <t>1613.93</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1764.54</t>
+          <t>1675.45</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1783.98</t>
+          <t>1671.85</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3090.01</t>
+          <t>3005.45</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3226.76</t>
+          <t>2999.91</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2430.73</t>
+          <t>2367.79</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2382.87</t>
+          <t>2179.51</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1875.14</t>
+          <t>1627.92</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1864.67</t>
+          <t>1616.95</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1757.34</t>
+          <t>1664.34</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1766.68</t>
+          <t>1660.42</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3099.06</t>
+          <t>3002.05</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3173.67</t>
+          <t>3006.18</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2432.03</t>
+          <t>2367.77</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2384.94</t>
+          <t>2189.74</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1867.58</t>
+          <t>1641.69</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1869.27</t>
+          <t>1623.26</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1759.20</t>
+          <t>1665.18</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1755.51</t>
+          <t>1661.60</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3108.88</t>
+          <t>3000.79</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>3178.41</t>
+          <t>3011.65</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2449.46</t>
+          <t>2376.82</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2387.03</t>
+          <t>2193.46</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1872.63</t>
+          <t>1667.68</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1861.07</t>
+          <t>1650.67</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1763.94</t>
+          <t>1658.70</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1756.60</t>
+          <t>1657.38</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3117.88</t>
+          <t>2999.88</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3135.30</t>
+          <t>3017.70</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2453.91</t>
+          <t>2387.40</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2420.17</t>
+          <t>2198.81</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1876.44</t>
+          <t>1663.62</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1865.16</t>
+          <t>1654.73</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1769.98</t>
+          <t>1647.20</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1760.03</t>
+          <t>1647.64</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3125.84</t>
+          <t>3000.66</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3150.94</t>
+          <t>3018.90</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2458.62</t>
+          <t>2389.66</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2427.64</t>
+          <t>2210.25</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1881.61</t>
+          <t>1665.86</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1870.22</t>
+          <t>1655.55</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1766.17</t>
+          <t>1637.90</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1768.09</t>
+          <t>1632.95</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3139.99</t>
+          <t>3008.05</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3163.60</t>
+          <t>3026.24</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2469.46</t>
+          <t>2401.51</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2441.43</t>
+          <t>2220.20</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1893.18</t>
+          <t>1677.53</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1881.77</t>
+          <t>1667.13</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1776.70</t>
+          <t>1647.68</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1767.21</t>
+          <t>1637.31</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3231.08</t>
+          <t>3107.02</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3310.17</t>
+          <t>3129.32</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2578.77</t>
+          <t>2442.16</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2547.89</t>
+          <t>2311.45</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2000.79</t>
+          <t>1763.89</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1991.91</t>
+          <t>1752.51</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1880.58</t>
+          <t>1732.95</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1876.08</t>
+          <t>1722.58</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4020.30</t>
+          <t>3821.56</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3951.02</t>
+          <t>3934.53</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3358.31</t>
+          <t>3245.99</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>3040.79</t>
+          <t>2855.58</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2426.98</t>
+          <t>2226.09</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2404.37</t>
+          <t>2189.85</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2548.70</t>
+          <t>2316.57</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2556.61</t>
+          <t>2340.48</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2355.53</t>
+          <t>2545.67</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2464.90</t>
+          <t>2232.60</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>668.41</t>
+          <t>768.63</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2018.88</t>
+          <t>1802.21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1627.62</t>
+          <t>1431.45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1618.94</t>
+          <t>1423.24</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1541.29</t>
+          <t>1604.23</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1546.15</t>
+          <t>1612.04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3214.23</t>
+          <t>3303.00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3199.27</t>
+          <t>2852.16</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2412.99</t>
+          <t>2556.36</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2361.20</t>
+          <t>2144.07</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1892.14</t>
+          <t>1647.52</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1881.11</t>
+          <t>1640.90</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1795.87</t>
+          <t>1853.25</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1785.26</t>
+          <t>1848.33</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3214.29</t>
+          <t>3289.45</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3189.93</t>
+          <t>3131.97</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2397.30</t>
+          <t>2512.92</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2354.76</t>
+          <t>2129.51</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1889.27</t>
+          <t>1632.39</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1877.38</t>
+          <t>1622.37</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1790.54</t>
+          <t>1846.14</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1779.60</t>
+          <t>1836.32</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3211.93</t>
+          <t>3282.61</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>3188.32</t>
+          <t>3122.34</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2391.57</t>
+          <t>2495.06</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2352.76</t>
+          <t>2119.98</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1889.50</t>
+          <t>1802.94</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1878.16</t>
+          <t>1619.23</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1780.74</t>
+          <t>1846.66</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1770.01</t>
+          <t>1837.11</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3208.87</t>
+          <t>3278.58</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>3187.89</t>
+          <t>3121.11</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2349.04</t>
+          <t>2494.85</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2351.14</t>
+          <t>2076.26</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1866.68</t>
+          <t>1798.51</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1855.60</t>
+          <t>1792.67</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1768.62</t>
+          <t>1851.00</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1759.15</t>
+          <t>1833.30</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3125.81</t>
+          <t>3272.59</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>3188.72</t>
+          <t>3120.35</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2353.41</t>
+          <t>2484.62</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2385.31</t>
+          <t>2352.98</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1871.87</t>
+          <t>1797.96</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1860.91</t>
+          <t>1787.94</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1770.90</t>
+          <t>1840.93</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1761.78</t>
+          <t>1832.19</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3133.12</t>
+          <t>3272.95</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>3191.70</t>
+          <t>3121.79</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2358.07</t>
+          <t>2488.67</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2387.15</t>
+          <t>2351.31</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1879.44</t>
+          <t>1799.88</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1866.48</t>
+          <t>1789.59</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1775.55</t>
+          <t>1803.08</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1765.46</t>
+          <t>1792.41</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3145.43</t>
+          <t>3254.09</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>3198.88</t>
+          <t>3130.83</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2367.16</t>
+          <t>2495.89</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2400.76</t>
+          <t>2359.40</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1894.64</t>
+          <t>1809.51</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1882.02</t>
+          <t>1799.17</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1786.68</t>
+          <t>1811.37</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1776.05</t>
+          <t>1801.90</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3220.50</t>
+          <t>3349.97</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>3292.39</t>
+          <t>3235.81</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2494.10</t>
+          <t>2546.44</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2494.84</t>
+          <t>2454.82</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1988.95</t>
+          <t>1901.36</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1977.38</t>
+          <t>1891.56</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1868.83</t>
+          <t>1890.18</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1858.32</t>
+          <t>1879.62</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4078.63</t>
+          <t>4109.35</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3973.97</t>
+          <t>3786.35</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3331.50</t>
+          <t>3246.23</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2975.69</t>
+          <t>2723.97</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2432.41</t>
+          <t>2302.94</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2405.78</t>
+          <t>2283.53</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2535.33</t>
+          <t>2540.66</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2535.92</t>
+          <t>2540.07</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2100.36</t>
+          <t>1703.07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2225.24</t>
+          <t>1813.90</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>603.86</t>
+          <t>376.64</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1848.42</t>
+          <t>1474.30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1434.91</t>
+          <t>1102.33</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1428.59</t>
+          <t>1097.92</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1327.09</t>
+          <t>1002.00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1326.09</t>
+          <t>1016.47</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2459.94</t>
+          <t>2199.22</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2571.59</t>
+          <t>2303.76</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2173.14</t>
+          <t>1833.06</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2188.34</t>
+          <t>1773.65</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1639.89</t>
+          <t>1298.00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1630.84</t>
+          <t>1297.77</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1518.54</t>
+          <t>1189.36</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1510.81</t>
+          <t>1192.85</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2455.13</t>
+          <t>2177.26</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2566.11</t>
+          <t>2251.82</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2139.59</t>
+          <t>1756.55</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2191.88</t>
+          <t>1750.85</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1627.93</t>
+          <t>1265.84</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1618.30</t>
+          <t>1269.38</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1501.52</t>
+          <t>1178.64</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1503.79</t>
+          <t>1176.70</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2470.47</t>
+          <t>2174.00</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2575.62</t>
+          <t>2242.89</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2145.28</t>
+          <t>1737.54</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2198.24</t>
+          <t>1746.61</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1630.74</t>
+          <t>1265.13</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1621.90</t>
+          <t>1257.65</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1506.50</t>
+          <t>1180.19</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1498.25</t>
+          <t>1176.14</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2486.53</t>
+          <t>2173.43</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2584.00</t>
+          <t>2241.89</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>2151.32</t>
+          <t>1735.36</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>2201.43</t>
+          <t>1744.68</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1635.87</t>
+          <t>1266.56</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1628.91</t>
+          <t>1259.03</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1512.73</t>
+          <t>1183.29</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1503.97</t>
+          <t>1178.54</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2501.21</t>
+          <t>2173.44</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2590.58</t>
+          <t>2241.83</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>2156.72</t>
+          <t>1735.12</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>2235.64</t>
+          <t>1749.44</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1641.96</t>
+          <t>1268.27</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1635.51</t>
+          <t>1260.70</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1518.81</t>
+          <t>1186.36</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1509.96</t>
+          <t>1181.37</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2515.39</t>
+          <t>2174.18</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2598.36</t>
+          <t>2242.56</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>2161.99</t>
+          <t>1736.08</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2243.66</t>
+          <t>1751.18</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1651.71</t>
+          <t>1270.60</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1643.28</t>
+          <t>1262.99</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1525.55</t>
+          <t>1189.64</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1516.73</t>
+          <t>1184.50</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>2535.19</t>
+          <t>2179.86</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>2613.38</t>
+          <t>2248.43</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>2172.63</t>
+          <t>1742.11</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>2257.76</t>
+          <t>1758.32</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1668.78</t>
+          <t>1278.32</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1659.01</t>
+          <t>1270.68</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1539.80</t>
+          <t>1197.36</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1530.52</t>
+          <t>1192.02</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2644.07</t>
+          <t>2260.68</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>2716.54</t>
+          <t>2331.72</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>2297.27</t>
+          <t>1789.54</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>2347.54</t>
+          <t>1829.78</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>1759.03</t>
+          <t>1353.31</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>1750.15</t>
+          <t>1345.76</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1622.17</t>
+          <t>1269.30</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1614.32</t>
+          <t>1263.83</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>3277.89</t>
+          <t>2817.62</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>3346.09</t>
+          <t>2866.75</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>2709.06</t>
+          <t>2283.45</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>2788.79</t>
+          <t>2298.49</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>2126.32</t>
+          <t>1736.98</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>2104.98</t>
+          <t>1715.19</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>2137.03</t>
+          <t>1770.06</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>2136.84</t>
+          <t>1776.24</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2441.74</t>
+          <t>2545.67</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2504.41</t>
+          <t>2474.57</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1733.70</t>
+          <t>1461.29</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2084.48</t>
+          <t>2026.88</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1653.76</t>
+          <t>1547.45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1679.22</t>
+          <t>1576.90</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1571.53</t>
+          <t>1604.23</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1574.85</t>
+          <t>1612.04</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3214.23</t>
+          <t>3303.00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3238.78</t>
+          <t>3243.69</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2454.50</t>
+          <t>2556.36</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2388.80</t>
+          <t>2409.99</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1892.14</t>
+          <t>1828.43</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1881.11</t>
+          <t>1819.58</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1795.87</t>
+          <t>1853.25</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1788.04</t>
+          <t>1848.33</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3214.29</t>
+          <t>3289.45</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3244.28</t>
+          <t>3248.16</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2430.73</t>
+          <t>2536.81</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2382.87</t>
+          <t>2412.59</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1889.27</t>
+          <t>1840.17</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1877.38</t>
+          <t>1827.78</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1790.54</t>
+          <t>1846.14</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1779.60</t>
+          <t>1836.32</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3211.93</t>
+          <t>3283.74</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3257.49</t>
+          <t>3257.55</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2432.03</t>
+          <t>2521.02</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2384.94</t>
+          <t>2409.20</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1889.50</t>
+          <t>1851.12</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1878.16</t>
+          <t>1837.86</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1780.74</t>
+          <t>1846.66</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1770.01</t>
+          <t>1837.11</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3212.05</t>
+          <t>3281.51</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3264.18</t>
+          <t>3265.49</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2449.46</t>
+          <t>2518.54</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2387.03</t>
+          <t>2413.07</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1872.63</t>
+          <t>1857.45</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1861.07</t>
+          <t>1844.80</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1768.62</t>
+          <t>1851.00</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1759.15</t>
+          <t>1833.30</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3216.08</t>
+          <t>3278.76</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3272.37</t>
+          <t>3271.95</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2453.91</t>
+          <t>2513.99</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2420.17</t>
+          <t>2426.07</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1876.44</t>
+          <t>1881.94</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1865.16</t>
+          <t>1874.83</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1775.48</t>
+          <t>1840.93</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1761.78</t>
+          <t>1832.19</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3222.83</t>
+          <t>3278.22</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3276.88</t>
+          <t>3278.00</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2458.62</t>
+          <t>2515.30</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2427.64</t>
+          <t>2423.07</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1881.61</t>
+          <t>1884.41</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1870.22</t>
+          <t>1873.44</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1785.41</t>
+          <t>1816.45</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1768.09</t>
+          <t>1809.96</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3235.35</t>
+          <t>3283.85</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3287.08</t>
+          <t>3288.85</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2469.46</t>
+          <t>2517.17</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2441.43</t>
+          <t>2418.41</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1894.64</t>
+          <t>1893.89</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1882.02</t>
+          <t>1882.80</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1798.92</t>
+          <t>1818.74</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1783.02</t>
+          <t>1813.20</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3334.79</t>
+          <t>3364.94</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3402.70</t>
+          <t>3381.89</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2578.77</t>
+          <t>2548.05</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2547.89</t>
+          <t>2490.76</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2000.79</t>
+          <t>1982.29</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1991.91</t>
+          <t>1969.88</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1894.41</t>
+          <t>1897.21</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1882.01</t>
+          <t>1887.66</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4141.56</t>
+          <t>4222.34</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>4006.55</t>
+          <t>3990.47</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3358.31</t>
+          <t>3335.63</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3113.54</t>
+          <t>2950.92</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2432.41</t>
+          <t>2353.37</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2405.78</t>
+          <t>2324.55</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2551.32</t>
+          <t>2589.86</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2556.61</t>
+          <t>2595.85</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
